--- a/qgdpstate1119.xlsx
+++ b/qgdpstate1119.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\REGIONAL\newsrel\working\1119gdpstate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox_new\Dropbox\Elaine cloud\AAA KSU Grad\6773 PDA\Project\PSEO\GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97C7CDC-9F53-479A-A048-AD8B44AE46B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB6124-512E-4F59-A926-F32BD1DF141B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="9" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="Table 2 pg 2" sheetId="3" r:id="rId3"/>
     <sheet name="Table 3" sheetId="10" r:id="rId4"/>
     <sheet name="Table 4" sheetId="11" r:id="rId5"/>
+    <sheet name="Data Preparation" sheetId="13" r:id="rId6"/>
+    <sheet name="GDP2018" sheetId="15" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Table 4'!$A$1:$J$65</definedName>
     <definedName name="table1" localSheetId="4">#REF!</definedName>
@@ -40,7 +39,7 @@
     <definedName name="testestest" localSheetId="4">#REF!</definedName>
     <definedName name="testestest">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="174">
   <si>
     <t/>
   </si>
@@ -552,6 +551,30 @@
   <si>
     <t>Revised GDP</t>
   </si>
+  <si>
+    <t xml:space="preserve">Start with GDP by Country, state and region. We don’t need quarter by quarter figures, only one measure to compare the GDP state by state. </t>
+  </si>
+  <si>
+    <t>We will choose the GDP dollar at 4th quarter of 2018 from Table3, and the 2018 GDP growth column from Table1</t>
+  </si>
+  <si>
+    <t>GDP2018 Sheet</t>
+  </si>
+  <si>
+    <t>gdp_growth</t>
+  </si>
+  <si>
+    <t>gdp_dollars</t>
+  </si>
+  <si>
+    <t>Deleted total US row and Region subtotals</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>Sorted rows by state_name</t>
+  </si>
 </sst>
 </file>
 
@@ -560,7 +583,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -600,6 +623,12 @@
     <font>
       <sz val="11"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -893,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -986,6 +1015,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1052,17 +1127,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,8 +1155,8 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1084,57 +1164,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,13 +1738,6 @@
         <name val="Arial Narrow"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4594,10 +4617,17 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{24D50755-9D35-4694-BC30-C946C5EE6832}">
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="127"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4611,104 +4641,79 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Table 1"/>
-      <sheetName val="Table 2"/>
-      <sheetName val="Table 3a"/>
-      <sheetName val="Table 3b"/>
-      <sheetName val="Table 4a"/>
-      <sheetName val="Table 4b"/>
-      <sheetName val="Table 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D1EEFB5-8A30-471E-A356-431254BF5A75}" name="Table162" displayName="Table162" ref="A5:I64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D1EEFB5-8A30-471E-A356-431254BF5A75}" name="Table162" displayName="Table162" ref="A5:I64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C08979AD-DA83-48E4-B77E-DF51E41E07A1}" name="Column1" headerRowDxfId="124" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{D4108F06-D05E-4BF1-B750-DF23E90C5E4F}" name="Column4" headerRowDxfId="122" dataDxfId="121"/>
-    <tableColumn id="9" xr3:uid="{45D11B2F-A65F-4C4B-BAD7-3F8A365C86E4}" name="Column9" headerRowDxfId="120" dataDxfId="119"/>
-    <tableColumn id="17" xr3:uid="{9EED72FA-5A6F-4B4A-9D2A-0DFB9F7697FF}" name="Column3" headerRowDxfId="118" dataDxfId="117"/>
-    <tableColumn id="16" xr3:uid="{D7938C31-930C-46D9-8880-2F2DB687A4FA}" name="Column2" headerRowDxfId="116" dataDxfId="115"/>
-    <tableColumn id="10" xr3:uid="{B809ADB7-EA28-436A-8533-52A0E9B9A542}" name="Column10" headerRowDxfId="114" dataDxfId="113"/>
-    <tableColumn id="11" xr3:uid="{7592520A-6F49-40FE-8E76-2D94CB155596}" name="Column11" headerRowDxfId="112" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{4A39B976-20D2-41FC-873C-2B4BCF9815B9}" name="Column5" headerRowDxfId="110" dataDxfId="109"/>
-    <tableColumn id="18" xr3:uid="{AF0C30E6-8FE7-4940-AD3A-F78F60FCD222}" name="Column122" headerRowDxfId="108" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{C08979AD-DA83-48E4-B77E-DF51E41E07A1}" name="Column1" headerRowDxfId="123" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{D4108F06-D05E-4BF1-B750-DF23E90C5E4F}" name="Column4" headerRowDxfId="121" dataDxfId="120"/>
+    <tableColumn id="9" xr3:uid="{45D11B2F-A65F-4C4B-BAD7-3F8A365C86E4}" name="Column9" headerRowDxfId="119" dataDxfId="118"/>
+    <tableColumn id="17" xr3:uid="{9EED72FA-5A6F-4B4A-9D2A-0DFB9F7697FF}" name="Column3" headerRowDxfId="117" dataDxfId="116"/>
+    <tableColumn id="16" xr3:uid="{D7938C31-930C-46D9-8880-2F2DB687A4FA}" name="Column2" headerRowDxfId="115" dataDxfId="114"/>
+    <tableColumn id="10" xr3:uid="{B809ADB7-EA28-436A-8533-52A0E9B9A542}" name="Column10" headerRowDxfId="113" dataDxfId="112"/>
+    <tableColumn id="11" xr3:uid="{7592520A-6F49-40FE-8E76-2D94CB155596}" name="Column11" headerRowDxfId="111" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{4A39B976-20D2-41FC-873C-2B4BCF9815B9}" name="Column5" headerRowDxfId="109" dataDxfId="108"/>
+    <tableColumn id="18" xr3:uid="{AF0C30E6-8FE7-4940-AD3A-F78F60FCD222}" name="Column122" headerRowDxfId="107" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A5:M64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105" tableBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A5:M64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104" tableBorderDxfId="103">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" headerRowDxfId="103" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" headerRowDxfId="101" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" headerRowDxfId="99" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" headerRowDxfId="97" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6" headerRowDxfId="93" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7" headerRowDxfId="91" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8" headerRowDxfId="89" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9" headerRowDxfId="87" dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10" headerRowDxfId="85" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11" headerRowDxfId="83" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12" headerRowDxfId="81" dataDxfId="80"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" headerRowDxfId="102" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10" headerRowDxfId="84" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13" headerRowDxfId="78" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A5:K64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A5:K64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" headerRowDxfId="74" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" headerRowDxfId="72" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" headerRowDxfId="70" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" headerRowDxfId="68" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5" headerRowDxfId="66" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6" headerRowDxfId="64" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7" headerRowDxfId="62" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8" headerRowDxfId="60" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column9" headerRowDxfId="58" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column10" headerRowDxfId="56" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column11" headerRowDxfId="54" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" headerRowDxfId="73" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" headerRowDxfId="71" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" headerRowDxfId="69" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" headerRowDxfId="67" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5" headerRowDxfId="65" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6" headerRowDxfId="63" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7" headerRowDxfId="61" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8" headerRowDxfId="59" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column9" headerRowDxfId="57" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column10" headerRowDxfId="55" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column11" headerRowDxfId="53" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2983C52F-7A52-471D-B939-3B366A6822A3}" name="Table46" displayName="Table46" ref="A6:M67" headerRowCount="0" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2983C52F-7A52-471D-B939-3B366A6822A3}" name="Table46" displayName="Table46" ref="A6:M67" headerRowCount="0" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E945F4BD-EE82-42C2-9144-AF28043AC79D}" name="Column1" headerRowDxfId="49" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{90C67742-5AD9-45B4-BDF6-B704F61F73E8}" name="Column8" headerRowDxfId="47" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{E4BA1EAE-9482-4388-B5F4-C8EAB1D62DB2}" name="Column7" headerRowDxfId="45" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{F7DABCD0-ACB7-45C0-B83B-9EAAAAB70432}" name="Column3" headerRowDxfId="43" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{1E0A97E2-3481-4E93-BBA9-767CA8CD41EA}" name="Column4" headerRowDxfId="41" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{58014D5A-2C4F-45C9-8BA9-ECD8F4E0265B}" name="Column5" headerRowDxfId="39" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{BB2BB47A-1FC2-42C5-9C80-C49A700591E4}" name="Column2" headerRowDxfId="37" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{CBF06DEC-FDE8-467E-990D-315325178266}" name="Column14" headerRowDxfId="35" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{5A0923C0-42CB-41A8-9322-50F8B5D79B1B}" name="Column13" headerRowDxfId="33" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{B9DE209A-7D18-4F80-9454-6268B4238D51}" name="Column9" headerRowDxfId="31" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{0499EA10-BE2F-4B28-A3DC-CDACCF7315A6}" name="Column10" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{9E9F443A-11A7-45CA-B33F-CA73BB7FBBB0}" name="Column6" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{FB4BB922-9750-4285-8C98-BD4DA597BD1D}" name="Column11" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{E945F4BD-EE82-42C2-9144-AF28043AC79D}" name="Column1" headerRowDxfId="48" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{90C67742-5AD9-45B4-BDF6-B704F61F73E8}" name="Column8" headerRowDxfId="46" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{E4BA1EAE-9482-4388-B5F4-C8EAB1D62DB2}" name="Column7" headerRowDxfId="44" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{F7DABCD0-ACB7-45C0-B83B-9EAAAAB70432}" name="Column3" headerRowDxfId="42" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{1E0A97E2-3481-4E93-BBA9-767CA8CD41EA}" name="Column4" headerRowDxfId="40" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{58014D5A-2C4F-45C9-8BA9-ECD8F4E0265B}" name="Column5" headerRowDxfId="38" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{BB2BB47A-1FC2-42C5-9C80-C49A700591E4}" name="Column2" headerRowDxfId="36" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{CBF06DEC-FDE8-467E-990D-315325178266}" name="Column14" headerRowDxfId="34" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{5A0923C0-42CB-41A8-9322-50F8B5D79B1B}" name="Column13" headerRowDxfId="32" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{B9DE209A-7D18-4F80-9454-6268B4238D51}" name="Column9" headerRowDxfId="30" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{0499EA10-BE2F-4B28-A3DC-CDACCF7315A6}" name="Column10" headerRowDxfId="28" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{9E9F443A-11A7-45CA-B33F-CA73BB7FBBB0}" name="Column6" headerRowDxfId="26" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{FB4BB922-9750-4285-8C98-BD4DA597BD1D}" name="Column11" headerRowDxfId="24" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5058,70 +5063,70 @@
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2" max="9" width="14.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="22.71875" style="19" customWidth="1"/>
+    <col min="2" max="9" width="14.71875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.65">
+      <c r="A1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56">
         <v>2018</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42">
+      <c r="B3" s="57"/>
+      <c r="C3" s="60">
         <v>2018</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="47">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="65">
         <v>2019</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="45" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="24" t="s">
         <v>20</v>
       </c>
@@ -5140,9 +5145,9 @@
       <c r="H4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -5171,7 +5176,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
@@ -5229,7 +5234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -5258,7 +5263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5345,7 +5350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -5374,7 +5379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
@@ -5461,7 +5466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -5519,7 +5524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -5548,7 +5553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -5606,7 +5611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -5635,7 +5640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
@@ -5664,7 +5669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>56</v>
       </c>
@@ -5693,7 +5698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
@@ -5722,7 +5727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -5751,7 +5756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
@@ -5780,7 +5785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -5809,7 +5814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -5867,7 +5872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
@@ -5896,7 +5901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>81</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
@@ -5954,7 +5959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
@@ -5983,7 +5988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -6012,7 +6017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>61</v>
       </c>
@@ -6041,7 +6046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>82</v>
       </c>
@@ -6070,7 +6075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
@@ -6128,7 +6133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>83</v>
       </c>
@@ -6157,7 +6162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>62</v>
       </c>
@@ -6186,7 +6191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>63</v>
       </c>
@@ -6215,7 +6220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>64</v>
       </c>
@@ -6244,7 +6249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -6273,7 +6278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -6302,7 +6307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
@@ -6360,7 +6365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="7" t="s">
         <v>67</v>
       </c>
@@ -6389,7 +6394,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>68</v>
       </c>
@@ -6418,7 +6423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>84</v>
       </c>
@@ -6447,7 +6452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>85</v>
       </c>
@@ -6476,7 +6481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>86</v>
       </c>
@@ -6505,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
@@ -6534,7 +6539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>69</v>
       </c>
@@ -6563,7 +6568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>70</v>
       </c>
@@ -6592,7 +6597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>46</v>
       </c>
@@ -6621,7 +6626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="8" t="s">
         <v>71</v>
       </c>
@@ -6650,7 +6655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="8" t="s">
         <v>72</v>
       </c>
@@ -6679,7 +6684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="7" t="s">
         <v>87</v>
       </c>
@@ -6708,7 +6713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="8" t="s">
         <v>47</v>
       </c>
@@ -6737,7 +6742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="8" t="s">
         <v>73</v>
       </c>
@@ -6766,7 +6771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="8" t="s">
         <v>74</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="8" t="s">
         <v>88</v>
       </c>
@@ -6824,7 +6829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="8" t="s">
         <v>75</v>
       </c>
@@ -6853,7 +6858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="8" t="s">
         <v>89</v>
       </c>
@@ -6882,18 +6887,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
+    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6931,102 +6936,102 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.71875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.71875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.71875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="12.71875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.71875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.71875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.71875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.71875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.71875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:13" ht="19.8" x14ac:dyDescent="0.65">
+      <c r="A1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="3" t="s">
         <v>94</v>
       </c>
@@ -7061,7 +7066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -7102,7 +7107,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -7143,7 +7148,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
@@ -7184,7 +7189,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
@@ -7307,7 +7312,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
@@ -7348,7 +7353,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -7389,7 +7394,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -7430,7 +7435,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -7471,7 +7476,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
@@ -7512,7 +7517,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
@@ -7553,7 +7558,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -7594,7 +7599,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -7635,7 +7640,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
@@ -7676,7 +7681,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -7717,7 +7722,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -7758,7 +7763,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
@@ -7799,7 +7804,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>56</v>
       </c>
@@ -7840,7 +7845,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -7922,7 +7927,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
@@ -7963,7 +7968,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -8004,7 +8009,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
@@ -8045,7 +8050,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -8086,7 +8091,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
@@ -8127,7 +8132,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>81</v>
       </c>
@@ -8168,7 +8173,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
@@ -8209,7 +8214,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
@@ -8250,7 +8255,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>61</v>
       </c>
@@ -8332,7 +8337,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>82</v>
       </c>
@@ -8373,7 +8378,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
@@ -8455,7 +8460,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>83</v>
       </c>
@@ -8496,7 +8501,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>62</v>
       </c>
@@ -8537,7 +8542,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>63</v>
       </c>
@@ -8578,7 +8583,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>64</v>
       </c>
@@ -8619,7 +8624,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -8660,7 +8665,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -8701,7 +8706,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
@@ -8742,7 +8747,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
@@ -8783,7 +8788,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="7" t="s">
         <v>67</v>
       </c>
@@ -8824,7 +8829,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>68</v>
       </c>
@@ -8865,7 +8870,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>84</v>
       </c>
@@ -8906,7 +8911,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>85</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>86</v>
       </c>
@@ -8988,7 +8993,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
@@ -9029,7 +9034,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>69</v>
       </c>
@@ -9070,7 +9075,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>70</v>
       </c>
@@ -9111,7 +9116,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>46</v>
       </c>
@@ -9152,7 +9157,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="8" t="s">
         <v>71</v>
       </c>
@@ -9193,7 +9198,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="8" t="s">
         <v>72</v>
       </c>
@@ -9234,7 +9239,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="7" t="s">
         <v>87</v>
       </c>
@@ -9275,7 +9280,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="8" t="s">
         <v>47</v>
       </c>
@@ -9316,7 +9321,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="8" t="s">
         <v>73</v>
       </c>
@@ -9357,7 +9362,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="8" t="s">
         <v>74</v>
       </c>
@@ -9398,7 +9403,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="8" t="s">
         <v>88</v>
       </c>
@@ -9439,7 +9444,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="8" t="s">
         <v>75</v>
       </c>
@@ -9480,7 +9485,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="8" t="s">
         <v>89</v>
       </c>
@@ -9521,22 +9526,22 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
+    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9572,107 +9577,107 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.71875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.71875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.71875" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.71875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.71875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.71875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.27734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.71875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:11" ht="19.8" x14ac:dyDescent="0.65">
+      <c r="A1" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -9706,7 +9711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -9741,7 +9746,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -9776,7 +9781,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
@@ -9811,7 +9816,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -9846,7 +9851,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
@@ -9881,7 +9886,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
@@ -9916,7 +9921,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
@@ -9951,7 +9956,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -9986,7 +9991,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -10021,7 +10026,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -10056,7 +10061,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
@@ -10091,7 +10096,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
@@ -10126,7 +10131,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -10161,7 +10166,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -10196,7 +10201,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
@@ -10231,7 +10236,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -10266,7 +10271,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
@@ -10301,7 +10306,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
@@ -10336,7 +10341,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>56</v>
       </c>
@@ -10371,7 +10376,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
@@ -10406,7 +10411,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -10441,7 +10446,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
@@ -10476,7 +10481,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -10511,7 +10516,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
@@ -10546,7 +10551,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -10581,7 +10586,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
@@ -10616,7 +10621,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>81</v>
       </c>
@@ -10651,7 +10656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
@@ -10686,7 +10691,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
@@ -10721,7 +10726,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -10756,7 +10761,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="8" t="s">
         <v>61</v>
       </c>
@@ -10791,7 +10796,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>82</v>
       </c>
@@ -10826,7 +10831,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
@@ -10861,7 +10866,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
@@ -10896,7 +10901,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>83</v>
       </c>
@@ -10931,7 +10936,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>62</v>
       </c>
@@ -10966,7 +10971,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>63</v>
       </c>
@@ -11001,7 +11006,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>64</v>
       </c>
@@ -11036,7 +11041,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -11106,7 +11111,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
@@ -11141,7 +11146,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
@@ -11176,7 +11181,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="7" t="s">
         <v>67</v>
       </c>
@@ -11211,7 +11216,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="s">
         <v>68</v>
       </c>
@@ -11246,7 +11251,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>84</v>
       </c>
@@ -11281,7 +11286,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>85</v>
       </c>
@@ -11316,7 +11321,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>86</v>
       </c>
@@ -11351,7 +11356,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
@@ -11386,7 +11391,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>69</v>
       </c>
@@ -11421,7 +11426,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>70</v>
       </c>
@@ -11456,7 +11461,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>46</v>
       </c>
@@ -11491,7 +11496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="8" t="s">
         <v>71</v>
       </c>
@@ -11526,7 +11531,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="8" t="s">
         <v>72</v>
       </c>
@@ -11561,7 +11566,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="7" t="s">
         <v>87</v>
       </c>
@@ -11596,7 +11601,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="8" t="s">
         <v>47</v>
       </c>
@@ -11631,7 +11636,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="8" t="s">
         <v>73</v>
       </c>
@@ -11666,7 +11671,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="8" t="s">
         <v>74</v>
       </c>
@@ -11701,7 +11706,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="8" t="s">
         <v>88</v>
       </c>
@@ -11736,7 +11741,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="8" t="s">
         <v>75</v>
       </c>
@@ -11771,7 +11776,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="8" t="s">
         <v>89</v>
       </c>
@@ -11806,20 +11811,20 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11848,351 +11853,351 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" style="19" customWidth="1"/>
-    <col min="8" max="13" width="8.7109375" style="19" customWidth="1"/>
-    <col min="14" max="227" width="9.140625" style="19"/>
-    <col min="228" max="228" width="22.7109375" style="19" customWidth="1"/>
-    <col min="229" max="235" width="11.140625" style="19" customWidth="1"/>
-    <col min="236" max="238" width="12.140625" style="19" customWidth="1"/>
-    <col min="239" max="483" width="9.140625" style="19"/>
-    <col min="484" max="484" width="22.7109375" style="19" customWidth="1"/>
-    <col min="485" max="491" width="11.140625" style="19" customWidth="1"/>
-    <col min="492" max="494" width="12.140625" style="19" customWidth="1"/>
-    <col min="495" max="739" width="9.140625" style="19"/>
-    <col min="740" max="740" width="22.7109375" style="19" customWidth="1"/>
-    <col min="741" max="747" width="11.140625" style="19" customWidth="1"/>
-    <col min="748" max="750" width="12.140625" style="19" customWidth="1"/>
-    <col min="751" max="995" width="9.140625" style="19"/>
-    <col min="996" max="996" width="22.7109375" style="19" customWidth="1"/>
-    <col min="997" max="1003" width="11.140625" style="19" customWidth="1"/>
-    <col min="1004" max="1006" width="12.140625" style="19" customWidth="1"/>
-    <col min="1007" max="1251" width="9.140625" style="19"/>
-    <col min="1252" max="1252" width="22.7109375" style="19" customWidth="1"/>
-    <col min="1253" max="1259" width="11.140625" style="19" customWidth="1"/>
-    <col min="1260" max="1262" width="12.140625" style="19" customWidth="1"/>
-    <col min="1263" max="1507" width="9.140625" style="19"/>
-    <col min="1508" max="1508" width="22.7109375" style="19" customWidth="1"/>
-    <col min="1509" max="1515" width="11.140625" style="19" customWidth="1"/>
-    <col min="1516" max="1518" width="12.140625" style="19" customWidth="1"/>
-    <col min="1519" max="1763" width="9.140625" style="19"/>
-    <col min="1764" max="1764" width="22.7109375" style="19" customWidth="1"/>
-    <col min="1765" max="1771" width="11.140625" style="19" customWidth="1"/>
-    <col min="1772" max="1774" width="12.140625" style="19" customWidth="1"/>
-    <col min="1775" max="2019" width="9.140625" style="19"/>
-    <col min="2020" max="2020" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2021" max="2027" width="11.140625" style="19" customWidth="1"/>
-    <col min="2028" max="2030" width="12.140625" style="19" customWidth="1"/>
-    <col min="2031" max="2275" width="9.140625" style="19"/>
-    <col min="2276" max="2276" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2277" max="2283" width="11.140625" style="19" customWidth="1"/>
-    <col min="2284" max="2286" width="12.140625" style="19" customWidth="1"/>
-    <col min="2287" max="2531" width="9.140625" style="19"/>
-    <col min="2532" max="2532" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2533" max="2539" width="11.140625" style="19" customWidth="1"/>
-    <col min="2540" max="2542" width="12.140625" style="19" customWidth="1"/>
-    <col min="2543" max="2787" width="9.140625" style="19"/>
-    <col min="2788" max="2788" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2789" max="2795" width="11.140625" style="19" customWidth="1"/>
-    <col min="2796" max="2798" width="12.140625" style="19" customWidth="1"/>
-    <col min="2799" max="3043" width="9.140625" style="19"/>
-    <col min="3044" max="3044" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3045" max="3051" width="11.140625" style="19" customWidth="1"/>
-    <col min="3052" max="3054" width="12.140625" style="19" customWidth="1"/>
-    <col min="3055" max="3299" width="9.140625" style="19"/>
-    <col min="3300" max="3300" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3301" max="3307" width="11.140625" style="19" customWidth="1"/>
-    <col min="3308" max="3310" width="12.140625" style="19" customWidth="1"/>
-    <col min="3311" max="3555" width="9.140625" style="19"/>
-    <col min="3556" max="3556" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3557" max="3563" width="11.140625" style="19" customWidth="1"/>
-    <col min="3564" max="3566" width="12.140625" style="19" customWidth="1"/>
-    <col min="3567" max="3811" width="9.140625" style="19"/>
-    <col min="3812" max="3812" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3813" max="3819" width="11.140625" style="19" customWidth="1"/>
-    <col min="3820" max="3822" width="12.140625" style="19" customWidth="1"/>
-    <col min="3823" max="4067" width="9.140625" style="19"/>
-    <col min="4068" max="4068" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4069" max="4075" width="11.140625" style="19" customWidth="1"/>
-    <col min="4076" max="4078" width="12.140625" style="19" customWidth="1"/>
-    <col min="4079" max="4323" width="9.140625" style="19"/>
-    <col min="4324" max="4324" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4325" max="4331" width="11.140625" style="19" customWidth="1"/>
-    <col min="4332" max="4334" width="12.140625" style="19" customWidth="1"/>
-    <col min="4335" max="4579" width="9.140625" style="19"/>
-    <col min="4580" max="4580" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4581" max="4587" width="11.140625" style="19" customWidth="1"/>
-    <col min="4588" max="4590" width="12.140625" style="19" customWidth="1"/>
-    <col min="4591" max="4835" width="9.140625" style="19"/>
-    <col min="4836" max="4836" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4837" max="4843" width="11.140625" style="19" customWidth="1"/>
-    <col min="4844" max="4846" width="12.140625" style="19" customWidth="1"/>
-    <col min="4847" max="5091" width="9.140625" style="19"/>
-    <col min="5092" max="5092" width="22.7109375" style="19" customWidth="1"/>
-    <col min="5093" max="5099" width="11.140625" style="19" customWidth="1"/>
-    <col min="5100" max="5102" width="12.140625" style="19" customWidth="1"/>
-    <col min="5103" max="5347" width="9.140625" style="19"/>
-    <col min="5348" max="5348" width="22.7109375" style="19" customWidth="1"/>
-    <col min="5349" max="5355" width="11.140625" style="19" customWidth="1"/>
-    <col min="5356" max="5358" width="12.140625" style="19" customWidth="1"/>
-    <col min="5359" max="5603" width="9.140625" style="19"/>
-    <col min="5604" max="5604" width="22.7109375" style="19" customWidth="1"/>
-    <col min="5605" max="5611" width="11.140625" style="19" customWidth="1"/>
-    <col min="5612" max="5614" width="12.140625" style="19" customWidth="1"/>
-    <col min="5615" max="5859" width="9.140625" style="19"/>
-    <col min="5860" max="5860" width="22.7109375" style="19" customWidth="1"/>
-    <col min="5861" max="5867" width="11.140625" style="19" customWidth="1"/>
-    <col min="5868" max="5870" width="12.140625" style="19" customWidth="1"/>
-    <col min="5871" max="6115" width="9.140625" style="19"/>
-    <col min="6116" max="6116" width="22.7109375" style="19" customWidth="1"/>
-    <col min="6117" max="6123" width="11.140625" style="19" customWidth="1"/>
-    <col min="6124" max="6126" width="12.140625" style="19" customWidth="1"/>
-    <col min="6127" max="6371" width="9.140625" style="19"/>
-    <col min="6372" max="6372" width="22.7109375" style="19" customWidth="1"/>
-    <col min="6373" max="6379" width="11.140625" style="19" customWidth="1"/>
-    <col min="6380" max="6382" width="12.140625" style="19" customWidth="1"/>
-    <col min="6383" max="6627" width="9.140625" style="19"/>
-    <col min="6628" max="6628" width="22.7109375" style="19" customWidth="1"/>
-    <col min="6629" max="6635" width="11.140625" style="19" customWidth="1"/>
-    <col min="6636" max="6638" width="12.140625" style="19" customWidth="1"/>
-    <col min="6639" max="6883" width="9.140625" style="19"/>
-    <col min="6884" max="6884" width="22.7109375" style="19" customWidth="1"/>
-    <col min="6885" max="6891" width="11.140625" style="19" customWidth="1"/>
-    <col min="6892" max="6894" width="12.140625" style="19" customWidth="1"/>
-    <col min="6895" max="7139" width="9.140625" style="19"/>
-    <col min="7140" max="7140" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7141" max="7147" width="11.140625" style="19" customWidth="1"/>
-    <col min="7148" max="7150" width="12.140625" style="19" customWidth="1"/>
-    <col min="7151" max="7395" width="9.140625" style="19"/>
-    <col min="7396" max="7396" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7397" max="7403" width="11.140625" style="19" customWidth="1"/>
-    <col min="7404" max="7406" width="12.140625" style="19" customWidth="1"/>
-    <col min="7407" max="7651" width="9.140625" style="19"/>
-    <col min="7652" max="7652" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7653" max="7659" width="11.140625" style="19" customWidth="1"/>
-    <col min="7660" max="7662" width="12.140625" style="19" customWidth="1"/>
-    <col min="7663" max="7907" width="9.140625" style="19"/>
-    <col min="7908" max="7908" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7909" max="7915" width="11.140625" style="19" customWidth="1"/>
-    <col min="7916" max="7918" width="12.140625" style="19" customWidth="1"/>
-    <col min="7919" max="8163" width="9.140625" style="19"/>
-    <col min="8164" max="8164" width="22.7109375" style="19" customWidth="1"/>
-    <col min="8165" max="8171" width="11.140625" style="19" customWidth="1"/>
-    <col min="8172" max="8174" width="12.140625" style="19" customWidth="1"/>
-    <col min="8175" max="8419" width="9.140625" style="19"/>
-    <col min="8420" max="8420" width="22.7109375" style="19" customWidth="1"/>
-    <col min="8421" max="8427" width="11.140625" style="19" customWidth="1"/>
-    <col min="8428" max="8430" width="12.140625" style="19" customWidth="1"/>
-    <col min="8431" max="8675" width="9.140625" style="19"/>
-    <col min="8676" max="8676" width="22.7109375" style="19" customWidth="1"/>
-    <col min="8677" max="8683" width="11.140625" style="19" customWidth="1"/>
-    <col min="8684" max="8686" width="12.140625" style="19" customWidth="1"/>
-    <col min="8687" max="8931" width="9.140625" style="19"/>
-    <col min="8932" max="8932" width="22.7109375" style="19" customWidth="1"/>
-    <col min="8933" max="8939" width="11.140625" style="19" customWidth="1"/>
-    <col min="8940" max="8942" width="12.140625" style="19" customWidth="1"/>
-    <col min="8943" max="9187" width="9.140625" style="19"/>
-    <col min="9188" max="9188" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9189" max="9195" width="11.140625" style="19" customWidth="1"/>
-    <col min="9196" max="9198" width="12.140625" style="19" customWidth="1"/>
-    <col min="9199" max="9443" width="9.140625" style="19"/>
-    <col min="9444" max="9444" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9445" max="9451" width="11.140625" style="19" customWidth="1"/>
-    <col min="9452" max="9454" width="12.140625" style="19" customWidth="1"/>
-    <col min="9455" max="9699" width="9.140625" style="19"/>
-    <col min="9700" max="9700" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9701" max="9707" width="11.140625" style="19" customWidth="1"/>
-    <col min="9708" max="9710" width="12.140625" style="19" customWidth="1"/>
-    <col min="9711" max="9955" width="9.140625" style="19"/>
-    <col min="9956" max="9956" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9957" max="9963" width="11.140625" style="19" customWidth="1"/>
-    <col min="9964" max="9966" width="12.140625" style="19" customWidth="1"/>
-    <col min="9967" max="10211" width="9.140625" style="19"/>
-    <col min="10212" max="10212" width="22.7109375" style="19" customWidth="1"/>
-    <col min="10213" max="10219" width="11.140625" style="19" customWidth="1"/>
-    <col min="10220" max="10222" width="12.140625" style="19" customWidth="1"/>
-    <col min="10223" max="10467" width="9.140625" style="19"/>
-    <col min="10468" max="10468" width="22.7109375" style="19" customWidth="1"/>
-    <col min="10469" max="10475" width="11.140625" style="19" customWidth="1"/>
-    <col min="10476" max="10478" width="12.140625" style="19" customWidth="1"/>
-    <col min="10479" max="10723" width="9.140625" style="19"/>
-    <col min="10724" max="10724" width="22.7109375" style="19" customWidth="1"/>
-    <col min="10725" max="10731" width="11.140625" style="19" customWidth="1"/>
-    <col min="10732" max="10734" width="12.140625" style="19" customWidth="1"/>
-    <col min="10735" max="10979" width="9.140625" style="19"/>
-    <col min="10980" max="10980" width="22.7109375" style="19" customWidth="1"/>
-    <col min="10981" max="10987" width="11.140625" style="19" customWidth="1"/>
-    <col min="10988" max="10990" width="12.140625" style="19" customWidth="1"/>
-    <col min="10991" max="11235" width="9.140625" style="19"/>
-    <col min="11236" max="11236" width="22.7109375" style="19" customWidth="1"/>
-    <col min="11237" max="11243" width="11.140625" style="19" customWidth="1"/>
-    <col min="11244" max="11246" width="12.140625" style="19" customWidth="1"/>
-    <col min="11247" max="11491" width="9.140625" style="19"/>
-    <col min="11492" max="11492" width="22.7109375" style="19" customWidth="1"/>
-    <col min="11493" max="11499" width="11.140625" style="19" customWidth="1"/>
-    <col min="11500" max="11502" width="12.140625" style="19" customWidth="1"/>
-    <col min="11503" max="11747" width="9.140625" style="19"/>
-    <col min="11748" max="11748" width="22.7109375" style="19" customWidth="1"/>
-    <col min="11749" max="11755" width="11.140625" style="19" customWidth="1"/>
-    <col min="11756" max="11758" width="12.140625" style="19" customWidth="1"/>
-    <col min="11759" max="12003" width="9.140625" style="19"/>
-    <col min="12004" max="12004" width="22.7109375" style="19" customWidth="1"/>
-    <col min="12005" max="12011" width="11.140625" style="19" customWidth="1"/>
-    <col min="12012" max="12014" width="12.140625" style="19" customWidth="1"/>
-    <col min="12015" max="12259" width="9.140625" style="19"/>
-    <col min="12260" max="12260" width="22.7109375" style="19" customWidth="1"/>
-    <col min="12261" max="12267" width="11.140625" style="19" customWidth="1"/>
-    <col min="12268" max="12270" width="12.140625" style="19" customWidth="1"/>
-    <col min="12271" max="12515" width="9.140625" style="19"/>
-    <col min="12516" max="12516" width="22.7109375" style="19" customWidth="1"/>
-    <col min="12517" max="12523" width="11.140625" style="19" customWidth="1"/>
-    <col min="12524" max="12526" width="12.140625" style="19" customWidth="1"/>
-    <col min="12527" max="12771" width="9.140625" style="19"/>
-    <col min="12772" max="12772" width="22.7109375" style="19" customWidth="1"/>
-    <col min="12773" max="12779" width="11.140625" style="19" customWidth="1"/>
-    <col min="12780" max="12782" width="12.140625" style="19" customWidth="1"/>
-    <col min="12783" max="13027" width="9.140625" style="19"/>
-    <col min="13028" max="13028" width="22.7109375" style="19" customWidth="1"/>
-    <col min="13029" max="13035" width="11.140625" style="19" customWidth="1"/>
-    <col min="13036" max="13038" width="12.140625" style="19" customWidth="1"/>
-    <col min="13039" max="13283" width="9.140625" style="19"/>
-    <col min="13284" max="13284" width="22.7109375" style="19" customWidth="1"/>
-    <col min="13285" max="13291" width="11.140625" style="19" customWidth="1"/>
-    <col min="13292" max="13294" width="12.140625" style="19" customWidth="1"/>
-    <col min="13295" max="13539" width="9.140625" style="19"/>
-    <col min="13540" max="13540" width="22.7109375" style="19" customWidth="1"/>
-    <col min="13541" max="13547" width="11.140625" style="19" customWidth="1"/>
-    <col min="13548" max="13550" width="12.140625" style="19" customWidth="1"/>
-    <col min="13551" max="13795" width="9.140625" style="19"/>
-    <col min="13796" max="13796" width="22.7109375" style="19" customWidth="1"/>
-    <col min="13797" max="13803" width="11.140625" style="19" customWidth="1"/>
-    <col min="13804" max="13806" width="12.140625" style="19" customWidth="1"/>
-    <col min="13807" max="14051" width="9.140625" style="19"/>
-    <col min="14052" max="14052" width="22.7109375" style="19" customWidth="1"/>
-    <col min="14053" max="14059" width="11.140625" style="19" customWidth="1"/>
-    <col min="14060" max="14062" width="12.140625" style="19" customWidth="1"/>
-    <col min="14063" max="14307" width="9.140625" style="19"/>
-    <col min="14308" max="14308" width="22.7109375" style="19" customWidth="1"/>
-    <col min="14309" max="14315" width="11.140625" style="19" customWidth="1"/>
-    <col min="14316" max="14318" width="12.140625" style="19" customWidth="1"/>
-    <col min="14319" max="14563" width="9.140625" style="19"/>
-    <col min="14564" max="14564" width="22.7109375" style="19" customWidth="1"/>
-    <col min="14565" max="14571" width="11.140625" style="19" customWidth="1"/>
-    <col min="14572" max="14574" width="12.140625" style="19" customWidth="1"/>
-    <col min="14575" max="14819" width="9.140625" style="19"/>
-    <col min="14820" max="14820" width="22.7109375" style="19" customWidth="1"/>
-    <col min="14821" max="14827" width="11.140625" style="19" customWidth="1"/>
-    <col min="14828" max="14830" width="12.140625" style="19" customWidth="1"/>
-    <col min="14831" max="15075" width="9.140625" style="19"/>
-    <col min="15076" max="15076" width="22.7109375" style="19" customWidth="1"/>
-    <col min="15077" max="15083" width="11.140625" style="19" customWidth="1"/>
-    <col min="15084" max="15086" width="12.140625" style="19" customWidth="1"/>
-    <col min="15087" max="15331" width="9.140625" style="19"/>
-    <col min="15332" max="15332" width="22.7109375" style="19" customWidth="1"/>
-    <col min="15333" max="15339" width="11.140625" style="19" customWidth="1"/>
-    <col min="15340" max="15342" width="12.140625" style="19" customWidth="1"/>
-    <col min="15343" max="15587" width="9.140625" style="19"/>
-    <col min="15588" max="15588" width="22.7109375" style="19" customWidth="1"/>
-    <col min="15589" max="15595" width="11.140625" style="19" customWidth="1"/>
-    <col min="15596" max="15598" width="12.140625" style="19" customWidth="1"/>
-    <col min="15599" max="15843" width="9.140625" style="19"/>
-    <col min="15844" max="15844" width="22.7109375" style="19" customWidth="1"/>
-    <col min="15845" max="15851" width="11.140625" style="19" customWidth="1"/>
-    <col min="15852" max="15854" width="12.140625" style="19" customWidth="1"/>
-    <col min="15855" max="16099" width="9.140625" style="19"/>
-    <col min="16100" max="16100" width="22.7109375" style="19" customWidth="1"/>
-    <col min="16101" max="16107" width="11.140625" style="19" customWidth="1"/>
-    <col min="16108" max="16110" width="12.140625" style="19" customWidth="1"/>
-    <col min="16111" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="22.71875" style="19" customWidth="1"/>
+    <col min="2" max="7" width="10.71875" style="19" customWidth="1"/>
+    <col min="8" max="13" width="8.71875" style="19" customWidth="1"/>
+    <col min="14" max="227" width="9.1640625" style="19"/>
+    <col min="228" max="228" width="22.71875" style="19" customWidth="1"/>
+    <col min="229" max="235" width="11.1640625" style="19" customWidth="1"/>
+    <col min="236" max="238" width="12.1640625" style="19" customWidth="1"/>
+    <col min="239" max="483" width="9.1640625" style="19"/>
+    <col min="484" max="484" width="22.71875" style="19" customWidth="1"/>
+    <col min="485" max="491" width="11.1640625" style="19" customWidth="1"/>
+    <col min="492" max="494" width="12.1640625" style="19" customWidth="1"/>
+    <col min="495" max="739" width="9.1640625" style="19"/>
+    <col min="740" max="740" width="22.71875" style="19" customWidth="1"/>
+    <col min="741" max="747" width="11.1640625" style="19" customWidth="1"/>
+    <col min="748" max="750" width="12.1640625" style="19" customWidth="1"/>
+    <col min="751" max="995" width="9.1640625" style="19"/>
+    <col min="996" max="996" width="22.71875" style="19" customWidth="1"/>
+    <col min="997" max="1003" width="11.1640625" style="19" customWidth="1"/>
+    <col min="1004" max="1006" width="12.1640625" style="19" customWidth="1"/>
+    <col min="1007" max="1251" width="9.1640625" style="19"/>
+    <col min="1252" max="1252" width="22.71875" style="19" customWidth="1"/>
+    <col min="1253" max="1259" width="11.1640625" style="19" customWidth="1"/>
+    <col min="1260" max="1262" width="12.1640625" style="19" customWidth="1"/>
+    <col min="1263" max="1507" width="9.1640625" style="19"/>
+    <col min="1508" max="1508" width="22.71875" style="19" customWidth="1"/>
+    <col min="1509" max="1515" width="11.1640625" style="19" customWidth="1"/>
+    <col min="1516" max="1518" width="12.1640625" style="19" customWidth="1"/>
+    <col min="1519" max="1763" width="9.1640625" style="19"/>
+    <col min="1764" max="1764" width="22.71875" style="19" customWidth="1"/>
+    <col min="1765" max="1771" width="11.1640625" style="19" customWidth="1"/>
+    <col min="1772" max="1774" width="12.1640625" style="19" customWidth="1"/>
+    <col min="1775" max="2019" width="9.1640625" style="19"/>
+    <col min="2020" max="2020" width="22.71875" style="19" customWidth="1"/>
+    <col min="2021" max="2027" width="11.1640625" style="19" customWidth="1"/>
+    <col min="2028" max="2030" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2031" max="2275" width="9.1640625" style="19"/>
+    <col min="2276" max="2276" width="22.71875" style="19" customWidth="1"/>
+    <col min="2277" max="2283" width="11.1640625" style="19" customWidth="1"/>
+    <col min="2284" max="2286" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2287" max="2531" width="9.1640625" style="19"/>
+    <col min="2532" max="2532" width="22.71875" style="19" customWidth="1"/>
+    <col min="2533" max="2539" width="11.1640625" style="19" customWidth="1"/>
+    <col min="2540" max="2542" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2543" max="2787" width="9.1640625" style="19"/>
+    <col min="2788" max="2788" width="22.71875" style="19" customWidth="1"/>
+    <col min="2789" max="2795" width="11.1640625" style="19" customWidth="1"/>
+    <col min="2796" max="2798" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2799" max="3043" width="9.1640625" style="19"/>
+    <col min="3044" max="3044" width="22.71875" style="19" customWidth="1"/>
+    <col min="3045" max="3051" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3052" max="3054" width="12.1640625" style="19" customWidth="1"/>
+    <col min="3055" max="3299" width="9.1640625" style="19"/>
+    <col min="3300" max="3300" width="22.71875" style="19" customWidth="1"/>
+    <col min="3301" max="3307" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3308" max="3310" width="12.1640625" style="19" customWidth="1"/>
+    <col min="3311" max="3555" width="9.1640625" style="19"/>
+    <col min="3556" max="3556" width="22.71875" style="19" customWidth="1"/>
+    <col min="3557" max="3563" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3564" max="3566" width="12.1640625" style="19" customWidth="1"/>
+    <col min="3567" max="3811" width="9.1640625" style="19"/>
+    <col min="3812" max="3812" width="22.71875" style="19" customWidth="1"/>
+    <col min="3813" max="3819" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3820" max="3822" width="12.1640625" style="19" customWidth="1"/>
+    <col min="3823" max="4067" width="9.1640625" style="19"/>
+    <col min="4068" max="4068" width="22.71875" style="19" customWidth="1"/>
+    <col min="4069" max="4075" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4076" max="4078" width="12.1640625" style="19" customWidth="1"/>
+    <col min="4079" max="4323" width="9.1640625" style="19"/>
+    <col min="4324" max="4324" width="22.71875" style="19" customWidth="1"/>
+    <col min="4325" max="4331" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4332" max="4334" width="12.1640625" style="19" customWidth="1"/>
+    <col min="4335" max="4579" width="9.1640625" style="19"/>
+    <col min="4580" max="4580" width="22.71875" style="19" customWidth="1"/>
+    <col min="4581" max="4587" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4588" max="4590" width="12.1640625" style="19" customWidth="1"/>
+    <col min="4591" max="4835" width="9.1640625" style="19"/>
+    <col min="4836" max="4836" width="22.71875" style="19" customWidth="1"/>
+    <col min="4837" max="4843" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4844" max="4846" width="12.1640625" style="19" customWidth="1"/>
+    <col min="4847" max="5091" width="9.1640625" style="19"/>
+    <col min="5092" max="5092" width="22.71875" style="19" customWidth="1"/>
+    <col min="5093" max="5099" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5100" max="5102" width="12.1640625" style="19" customWidth="1"/>
+    <col min="5103" max="5347" width="9.1640625" style="19"/>
+    <col min="5348" max="5348" width="22.71875" style="19" customWidth="1"/>
+    <col min="5349" max="5355" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5356" max="5358" width="12.1640625" style="19" customWidth="1"/>
+    <col min="5359" max="5603" width="9.1640625" style="19"/>
+    <col min="5604" max="5604" width="22.71875" style="19" customWidth="1"/>
+    <col min="5605" max="5611" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5612" max="5614" width="12.1640625" style="19" customWidth="1"/>
+    <col min="5615" max="5859" width="9.1640625" style="19"/>
+    <col min="5860" max="5860" width="22.71875" style="19" customWidth="1"/>
+    <col min="5861" max="5867" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5868" max="5870" width="12.1640625" style="19" customWidth="1"/>
+    <col min="5871" max="6115" width="9.1640625" style="19"/>
+    <col min="6116" max="6116" width="22.71875" style="19" customWidth="1"/>
+    <col min="6117" max="6123" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6124" max="6126" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6127" max="6371" width="9.1640625" style="19"/>
+    <col min="6372" max="6372" width="22.71875" style="19" customWidth="1"/>
+    <col min="6373" max="6379" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6380" max="6382" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6383" max="6627" width="9.1640625" style="19"/>
+    <col min="6628" max="6628" width="22.71875" style="19" customWidth="1"/>
+    <col min="6629" max="6635" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6636" max="6638" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6639" max="6883" width="9.1640625" style="19"/>
+    <col min="6884" max="6884" width="22.71875" style="19" customWidth="1"/>
+    <col min="6885" max="6891" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6892" max="6894" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6895" max="7139" width="9.1640625" style="19"/>
+    <col min="7140" max="7140" width="22.71875" style="19" customWidth="1"/>
+    <col min="7141" max="7147" width="11.1640625" style="19" customWidth="1"/>
+    <col min="7148" max="7150" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7151" max="7395" width="9.1640625" style="19"/>
+    <col min="7396" max="7396" width="22.71875" style="19" customWidth="1"/>
+    <col min="7397" max="7403" width="11.1640625" style="19" customWidth="1"/>
+    <col min="7404" max="7406" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7407" max="7651" width="9.1640625" style="19"/>
+    <col min="7652" max="7652" width="22.71875" style="19" customWidth="1"/>
+    <col min="7653" max="7659" width="11.1640625" style="19" customWidth="1"/>
+    <col min="7660" max="7662" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7663" max="7907" width="9.1640625" style="19"/>
+    <col min="7908" max="7908" width="22.71875" style="19" customWidth="1"/>
+    <col min="7909" max="7915" width="11.1640625" style="19" customWidth="1"/>
+    <col min="7916" max="7918" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7919" max="8163" width="9.1640625" style="19"/>
+    <col min="8164" max="8164" width="22.71875" style="19" customWidth="1"/>
+    <col min="8165" max="8171" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8172" max="8174" width="12.1640625" style="19" customWidth="1"/>
+    <col min="8175" max="8419" width="9.1640625" style="19"/>
+    <col min="8420" max="8420" width="22.71875" style="19" customWidth="1"/>
+    <col min="8421" max="8427" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8428" max="8430" width="12.1640625" style="19" customWidth="1"/>
+    <col min="8431" max="8675" width="9.1640625" style="19"/>
+    <col min="8676" max="8676" width="22.71875" style="19" customWidth="1"/>
+    <col min="8677" max="8683" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8684" max="8686" width="12.1640625" style="19" customWidth="1"/>
+    <col min="8687" max="8931" width="9.1640625" style="19"/>
+    <col min="8932" max="8932" width="22.71875" style="19" customWidth="1"/>
+    <col min="8933" max="8939" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8940" max="8942" width="12.1640625" style="19" customWidth="1"/>
+    <col min="8943" max="9187" width="9.1640625" style="19"/>
+    <col min="9188" max="9188" width="22.71875" style="19" customWidth="1"/>
+    <col min="9189" max="9195" width="11.1640625" style="19" customWidth="1"/>
+    <col min="9196" max="9198" width="12.1640625" style="19" customWidth="1"/>
+    <col min="9199" max="9443" width="9.1640625" style="19"/>
+    <col min="9444" max="9444" width="22.71875" style="19" customWidth="1"/>
+    <col min="9445" max="9451" width="11.1640625" style="19" customWidth="1"/>
+    <col min="9452" max="9454" width="12.1640625" style="19" customWidth="1"/>
+    <col min="9455" max="9699" width="9.1640625" style="19"/>
+    <col min="9700" max="9700" width="22.71875" style="19" customWidth="1"/>
+    <col min="9701" max="9707" width="11.1640625" style="19" customWidth="1"/>
+    <col min="9708" max="9710" width="12.1640625" style="19" customWidth="1"/>
+    <col min="9711" max="9955" width="9.1640625" style="19"/>
+    <col min="9956" max="9956" width="22.71875" style="19" customWidth="1"/>
+    <col min="9957" max="9963" width="11.1640625" style="19" customWidth="1"/>
+    <col min="9964" max="9966" width="12.1640625" style="19" customWidth="1"/>
+    <col min="9967" max="10211" width="9.1640625" style="19"/>
+    <col min="10212" max="10212" width="22.71875" style="19" customWidth="1"/>
+    <col min="10213" max="10219" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10220" max="10222" width="12.1640625" style="19" customWidth="1"/>
+    <col min="10223" max="10467" width="9.1640625" style="19"/>
+    <col min="10468" max="10468" width="22.71875" style="19" customWidth="1"/>
+    <col min="10469" max="10475" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10476" max="10478" width="12.1640625" style="19" customWidth="1"/>
+    <col min="10479" max="10723" width="9.1640625" style="19"/>
+    <col min="10724" max="10724" width="22.71875" style="19" customWidth="1"/>
+    <col min="10725" max="10731" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10732" max="10734" width="12.1640625" style="19" customWidth="1"/>
+    <col min="10735" max="10979" width="9.1640625" style="19"/>
+    <col min="10980" max="10980" width="22.71875" style="19" customWidth="1"/>
+    <col min="10981" max="10987" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10988" max="10990" width="12.1640625" style="19" customWidth="1"/>
+    <col min="10991" max="11235" width="9.1640625" style="19"/>
+    <col min="11236" max="11236" width="22.71875" style="19" customWidth="1"/>
+    <col min="11237" max="11243" width="11.1640625" style="19" customWidth="1"/>
+    <col min="11244" max="11246" width="12.1640625" style="19" customWidth="1"/>
+    <col min="11247" max="11491" width="9.1640625" style="19"/>
+    <col min="11492" max="11492" width="22.71875" style="19" customWidth="1"/>
+    <col min="11493" max="11499" width="11.1640625" style="19" customWidth="1"/>
+    <col min="11500" max="11502" width="12.1640625" style="19" customWidth="1"/>
+    <col min="11503" max="11747" width="9.1640625" style="19"/>
+    <col min="11748" max="11748" width="22.71875" style="19" customWidth="1"/>
+    <col min="11749" max="11755" width="11.1640625" style="19" customWidth="1"/>
+    <col min="11756" max="11758" width="12.1640625" style="19" customWidth="1"/>
+    <col min="11759" max="12003" width="9.1640625" style="19"/>
+    <col min="12004" max="12004" width="22.71875" style="19" customWidth="1"/>
+    <col min="12005" max="12011" width="11.1640625" style="19" customWidth="1"/>
+    <col min="12012" max="12014" width="12.1640625" style="19" customWidth="1"/>
+    <col min="12015" max="12259" width="9.1640625" style="19"/>
+    <col min="12260" max="12260" width="22.71875" style="19" customWidth="1"/>
+    <col min="12261" max="12267" width="11.1640625" style="19" customWidth="1"/>
+    <col min="12268" max="12270" width="12.1640625" style="19" customWidth="1"/>
+    <col min="12271" max="12515" width="9.1640625" style="19"/>
+    <col min="12516" max="12516" width="22.71875" style="19" customWidth="1"/>
+    <col min="12517" max="12523" width="11.1640625" style="19" customWidth="1"/>
+    <col min="12524" max="12526" width="12.1640625" style="19" customWidth="1"/>
+    <col min="12527" max="12771" width="9.1640625" style="19"/>
+    <col min="12772" max="12772" width="22.71875" style="19" customWidth="1"/>
+    <col min="12773" max="12779" width="11.1640625" style="19" customWidth="1"/>
+    <col min="12780" max="12782" width="12.1640625" style="19" customWidth="1"/>
+    <col min="12783" max="13027" width="9.1640625" style="19"/>
+    <col min="13028" max="13028" width="22.71875" style="19" customWidth="1"/>
+    <col min="13029" max="13035" width="11.1640625" style="19" customWidth="1"/>
+    <col min="13036" max="13038" width="12.1640625" style="19" customWidth="1"/>
+    <col min="13039" max="13283" width="9.1640625" style="19"/>
+    <col min="13284" max="13284" width="22.71875" style="19" customWidth="1"/>
+    <col min="13285" max="13291" width="11.1640625" style="19" customWidth="1"/>
+    <col min="13292" max="13294" width="12.1640625" style="19" customWidth="1"/>
+    <col min="13295" max="13539" width="9.1640625" style="19"/>
+    <col min="13540" max="13540" width="22.71875" style="19" customWidth="1"/>
+    <col min="13541" max="13547" width="11.1640625" style="19" customWidth="1"/>
+    <col min="13548" max="13550" width="12.1640625" style="19" customWidth="1"/>
+    <col min="13551" max="13795" width="9.1640625" style="19"/>
+    <col min="13796" max="13796" width="22.71875" style="19" customWidth="1"/>
+    <col min="13797" max="13803" width="11.1640625" style="19" customWidth="1"/>
+    <col min="13804" max="13806" width="12.1640625" style="19" customWidth="1"/>
+    <col min="13807" max="14051" width="9.1640625" style="19"/>
+    <col min="14052" max="14052" width="22.71875" style="19" customWidth="1"/>
+    <col min="14053" max="14059" width="11.1640625" style="19" customWidth="1"/>
+    <col min="14060" max="14062" width="12.1640625" style="19" customWidth="1"/>
+    <col min="14063" max="14307" width="9.1640625" style="19"/>
+    <col min="14308" max="14308" width="22.71875" style="19" customWidth="1"/>
+    <col min="14309" max="14315" width="11.1640625" style="19" customWidth="1"/>
+    <col min="14316" max="14318" width="12.1640625" style="19" customWidth="1"/>
+    <col min="14319" max="14563" width="9.1640625" style="19"/>
+    <col min="14564" max="14564" width="22.71875" style="19" customWidth="1"/>
+    <col min="14565" max="14571" width="11.1640625" style="19" customWidth="1"/>
+    <col min="14572" max="14574" width="12.1640625" style="19" customWidth="1"/>
+    <col min="14575" max="14819" width="9.1640625" style="19"/>
+    <col min="14820" max="14820" width="22.71875" style="19" customWidth="1"/>
+    <col min="14821" max="14827" width="11.1640625" style="19" customWidth="1"/>
+    <col min="14828" max="14830" width="12.1640625" style="19" customWidth="1"/>
+    <col min="14831" max="15075" width="9.1640625" style="19"/>
+    <col min="15076" max="15076" width="22.71875" style="19" customWidth="1"/>
+    <col min="15077" max="15083" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15084" max="15086" width="12.1640625" style="19" customWidth="1"/>
+    <col min="15087" max="15331" width="9.1640625" style="19"/>
+    <col min="15332" max="15332" width="22.71875" style="19" customWidth="1"/>
+    <col min="15333" max="15339" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15340" max="15342" width="12.1640625" style="19" customWidth="1"/>
+    <col min="15343" max="15587" width="9.1640625" style="19"/>
+    <col min="15588" max="15588" width="22.71875" style="19" customWidth="1"/>
+    <col min="15589" max="15595" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15596" max="15598" width="12.1640625" style="19" customWidth="1"/>
+    <col min="15599" max="15843" width="9.1640625" style="19"/>
+    <col min="15844" max="15844" width="22.71875" style="19" customWidth="1"/>
+    <col min="15845" max="15851" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15852" max="15854" width="12.1640625" style="19" customWidth="1"/>
+    <col min="15855" max="16099" width="9.1640625" style="19"/>
+    <col min="16100" max="16100" width="22.71875" style="19" customWidth="1"/>
+    <col min="16101" max="16107" width="11.1640625" style="19" customWidth="1"/>
+    <col min="16108" max="16110" width="12.1640625" style="19" customWidth="1"/>
+    <col min="16111" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" ht="19.8" x14ac:dyDescent="0.65">
+      <c r="A1" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="46" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="54"/>
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="65">
         <v>2018</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="40">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="58">
         <v>2019</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="47">
+      <c r="G4" s="54"/>
+      <c r="H4" s="65">
         <v>2018</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="40">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="58">
         <v>2019</v>
       </c>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -12232,7 +12237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
@@ -12273,7 +12278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -12314,7 +12319,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>76</v>
       </c>
@@ -12355,7 +12360,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -12396,7 +12401,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -12437,7 +12442,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
@@ -12478,7 +12483,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -12519,7 +12524,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
@@ -12560,7 +12565,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -12601,7 +12606,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
@@ -12642,7 +12647,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
@@ -12683,7 +12688,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
@@ -12724,7 +12729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>77</v>
       </c>
@@ -12765,7 +12770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>78</v>
       </c>
@@ -12806,7 +12811,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
@@ -12847,7 +12852,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>54</v>
       </c>
@@ -12888,7 +12893,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>55</v>
       </c>
@@ -12929,7 +12934,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>79</v>
       </c>
@@ -12970,7 +12975,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -13011,7 +13016,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -13052,7 +13057,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -13093,7 +13098,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
@@ -13134,7 +13139,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -13175,7 +13180,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
         <v>80</v>
       </c>
@@ -13216,7 +13221,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -13257,7 +13262,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
@@ -13298,7 +13303,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>81</v>
       </c>
@@ -13339,7 +13344,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
@@ -13380,7 +13385,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="8" t="s">
         <v>60</v>
       </c>
@@ -13421,7 +13426,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -13462,7 +13467,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="8" t="s">
         <v>61</v>
       </c>
@@ -13503,7 +13508,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="8" t="s">
         <v>82</v>
       </c>
@@ -13544,7 +13549,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>41</v>
       </c>
@@ -13585,7 +13590,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>42</v>
       </c>
@@ -13626,7 +13631,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>83</v>
       </c>
@@ -13667,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="8" t="s">
         <v>62</v>
       </c>
@@ -13708,7 +13713,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
@@ -13749,7 +13754,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="8" t="s">
         <v>64</v>
       </c>
@@ -13790,7 +13795,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="8" t="s">
         <v>43</v>
       </c>
@@ -13831,7 +13836,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="8" t="s">
         <v>44</v>
       </c>
@@ -13872,7 +13877,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="8" t="s">
         <v>65</v>
       </c>
@@ -13913,7 +13918,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="8" t="s">
         <v>66</v>
       </c>
@@ -13954,7 +13959,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="7" t="s">
         <v>67</v>
       </c>
@@ -13995,7 +14000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
         <v>68</v>
       </c>
@@ -14036,7 +14041,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="s">
         <v>84</v>
       </c>
@@ -14077,7 +14082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="8" t="s">
         <v>85</v>
       </c>
@@ -14118,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
@@ -14159,7 +14164,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="7" t="s">
         <v>45</v>
       </c>
@@ -14200,7 +14205,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="s">
         <v>69</v>
       </c>
@@ -14241,7 +14246,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="8" t="s">
         <v>70</v>
       </c>
@@ -14282,7 +14287,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="8" t="s">
         <v>46</v>
       </c>
@@ -14323,7 +14328,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="8" t="s">
         <v>71</v>
       </c>
@@ -14364,7 +14369,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="8" t="s">
         <v>72</v>
       </c>
@@ -14405,7 +14410,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="7" t="s">
         <v>87</v>
       </c>
@@ -14446,7 +14451,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="8" t="s">
         <v>47</v>
       </c>
@@ -14487,7 +14492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="8" t="s">
         <v>73</v>
       </c>
@@ -14528,7 +14533,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="8" t="s">
         <v>74</v>
       </c>
@@ -14569,7 +14574,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="8" t="s">
         <v>88</v>
       </c>
@@ -14610,7 +14615,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="8" t="s">
         <v>75</v>
       </c>
@@ -14651,7 +14656,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="8" t="s">
         <v>89</v>
       </c>
@@ -14692,7 +14697,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="26"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -14707,7 +14712,7 @@
       <c r="L66" s="28"/>
       <c r="M66" s="32"/>
     </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="26" t="s">
         <v>90</v>
       </c>
@@ -14748,41 +14753,41 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="34" t="s">
+    <row r="68" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A68" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-    </row>
-    <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+    </row>
+    <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
@@ -14826,2851 +14831,2851 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="61" customWidth="1"/>
-    <col min="2" max="4" width="12.7109375" style="88" customWidth="1"/>
-    <col min="5" max="7" width="11.140625" style="88" customWidth="1"/>
-    <col min="8" max="10" width="9.7109375" style="88" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="61" customWidth="1"/>
-    <col min="12" max="17" width="15.7109375" style="61" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="21" max="256" width="9.140625" style="61"/>
-    <col min="257" max="257" width="21.7109375" style="61" customWidth="1"/>
-    <col min="258" max="258" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="261" max="265" width="11.140625" style="61" customWidth="1"/>
-    <col min="266" max="266" width="12.140625" style="61" customWidth="1"/>
-    <col min="267" max="267" width="10.140625" style="61" customWidth="1"/>
-    <col min="268" max="273" width="15.7109375" style="61" customWidth="1"/>
-    <col min="274" max="274" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="277" max="512" width="9.140625" style="61"/>
-    <col min="513" max="513" width="21.7109375" style="61" customWidth="1"/>
-    <col min="514" max="514" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="517" max="521" width="11.140625" style="61" customWidth="1"/>
-    <col min="522" max="522" width="12.140625" style="61" customWidth="1"/>
-    <col min="523" max="523" width="10.140625" style="61" customWidth="1"/>
-    <col min="524" max="529" width="15.7109375" style="61" customWidth="1"/>
-    <col min="530" max="530" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="533" max="768" width="9.140625" style="61"/>
-    <col min="769" max="769" width="21.7109375" style="61" customWidth="1"/>
-    <col min="770" max="770" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="773" max="777" width="11.140625" style="61" customWidth="1"/>
-    <col min="778" max="778" width="12.140625" style="61" customWidth="1"/>
-    <col min="779" max="779" width="10.140625" style="61" customWidth="1"/>
-    <col min="780" max="785" width="15.7109375" style="61" customWidth="1"/>
-    <col min="786" max="786" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="787" max="787" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="788" max="788" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="789" max="1024" width="9.140625" style="61"/>
-    <col min="1025" max="1025" width="21.7109375" style="61" customWidth="1"/>
-    <col min="1026" max="1026" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1033" width="11.140625" style="61" customWidth="1"/>
-    <col min="1034" max="1034" width="12.140625" style="61" customWidth="1"/>
-    <col min="1035" max="1035" width="10.140625" style="61" customWidth="1"/>
-    <col min="1036" max="1041" width="15.7109375" style="61" customWidth="1"/>
-    <col min="1042" max="1042" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1043" max="1043" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1044" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="1045" max="1280" width="9.140625" style="61"/>
-    <col min="1281" max="1281" width="21.7109375" style="61" customWidth="1"/>
-    <col min="1282" max="1282" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1289" width="11.140625" style="61" customWidth="1"/>
-    <col min="1290" max="1290" width="12.140625" style="61" customWidth="1"/>
-    <col min="1291" max="1291" width="10.140625" style="61" customWidth="1"/>
-    <col min="1292" max="1297" width="15.7109375" style="61" customWidth="1"/>
-    <col min="1298" max="1298" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1299" max="1299" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1300" max="1300" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="1301" max="1536" width="9.140625" style="61"/>
-    <col min="1537" max="1537" width="21.7109375" style="61" customWidth="1"/>
-    <col min="1538" max="1538" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1545" width="11.140625" style="61" customWidth="1"/>
-    <col min="1546" max="1546" width="12.140625" style="61" customWidth="1"/>
-    <col min="1547" max="1547" width="10.140625" style="61" customWidth="1"/>
-    <col min="1548" max="1553" width="15.7109375" style="61" customWidth="1"/>
-    <col min="1554" max="1554" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1555" max="1555" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1556" max="1556" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="1557" max="1792" width="9.140625" style="61"/>
-    <col min="1793" max="1793" width="21.7109375" style="61" customWidth="1"/>
-    <col min="1794" max="1794" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1801" width="11.140625" style="61" customWidth="1"/>
-    <col min="1802" max="1802" width="12.140625" style="61" customWidth="1"/>
-    <col min="1803" max="1803" width="10.140625" style="61" customWidth="1"/>
-    <col min="1804" max="1809" width="15.7109375" style="61" customWidth="1"/>
-    <col min="1810" max="1810" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1811" max="1811" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1812" max="1812" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="1813" max="2048" width="9.140625" style="61"/>
-    <col min="2049" max="2049" width="21.7109375" style="61" customWidth="1"/>
-    <col min="2050" max="2050" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2057" width="11.140625" style="61" customWidth="1"/>
-    <col min="2058" max="2058" width="12.140625" style="61" customWidth="1"/>
-    <col min="2059" max="2059" width="10.140625" style="61" customWidth="1"/>
-    <col min="2060" max="2065" width="15.7109375" style="61" customWidth="1"/>
-    <col min="2066" max="2066" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2067" max="2067" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2068" max="2068" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="2069" max="2304" width="9.140625" style="61"/>
-    <col min="2305" max="2305" width="21.7109375" style="61" customWidth="1"/>
-    <col min="2306" max="2306" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2313" width="11.140625" style="61" customWidth="1"/>
-    <col min="2314" max="2314" width="12.140625" style="61" customWidth="1"/>
-    <col min="2315" max="2315" width="10.140625" style="61" customWidth="1"/>
-    <col min="2316" max="2321" width="15.7109375" style="61" customWidth="1"/>
-    <col min="2322" max="2322" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2323" max="2323" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2324" max="2324" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="2325" max="2560" width="9.140625" style="61"/>
-    <col min="2561" max="2561" width="21.7109375" style="61" customWidth="1"/>
-    <col min="2562" max="2562" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2569" width="11.140625" style="61" customWidth="1"/>
-    <col min="2570" max="2570" width="12.140625" style="61" customWidth="1"/>
-    <col min="2571" max="2571" width="10.140625" style="61" customWidth="1"/>
-    <col min="2572" max="2577" width="15.7109375" style="61" customWidth="1"/>
-    <col min="2578" max="2578" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2579" max="2579" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2580" max="2580" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="2581" max="2816" width="9.140625" style="61"/>
-    <col min="2817" max="2817" width="21.7109375" style="61" customWidth="1"/>
-    <col min="2818" max="2818" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2825" width="11.140625" style="61" customWidth="1"/>
-    <col min="2826" max="2826" width="12.140625" style="61" customWidth="1"/>
-    <col min="2827" max="2827" width="10.140625" style="61" customWidth="1"/>
-    <col min="2828" max="2833" width="15.7109375" style="61" customWidth="1"/>
-    <col min="2834" max="2834" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2835" max="2835" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2836" max="2836" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="2837" max="3072" width="9.140625" style="61"/>
-    <col min="3073" max="3073" width="21.7109375" style="61" customWidth="1"/>
-    <col min="3074" max="3074" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3081" width="11.140625" style="61" customWidth="1"/>
-    <col min="3082" max="3082" width="12.140625" style="61" customWidth="1"/>
-    <col min="3083" max="3083" width="10.140625" style="61" customWidth="1"/>
-    <col min="3084" max="3089" width="15.7109375" style="61" customWidth="1"/>
-    <col min="3090" max="3090" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3091" max="3091" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3092" max="3092" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="3093" max="3328" width="9.140625" style="61"/>
-    <col min="3329" max="3329" width="21.7109375" style="61" customWidth="1"/>
-    <col min="3330" max="3330" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3337" width="11.140625" style="61" customWidth="1"/>
-    <col min="3338" max="3338" width="12.140625" style="61" customWidth="1"/>
-    <col min="3339" max="3339" width="10.140625" style="61" customWidth="1"/>
-    <col min="3340" max="3345" width="15.7109375" style="61" customWidth="1"/>
-    <col min="3346" max="3346" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3347" max="3347" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3348" max="3348" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="3349" max="3584" width="9.140625" style="61"/>
-    <col min="3585" max="3585" width="21.7109375" style="61" customWidth="1"/>
-    <col min="3586" max="3586" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3593" width="11.140625" style="61" customWidth="1"/>
-    <col min="3594" max="3594" width="12.140625" style="61" customWidth="1"/>
-    <col min="3595" max="3595" width="10.140625" style="61" customWidth="1"/>
-    <col min="3596" max="3601" width="15.7109375" style="61" customWidth="1"/>
-    <col min="3602" max="3602" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3603" max="3603" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3604" max="3604" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="3605" max="3840" width="9.140625" style="61"/>
-    <col min="3841" max="3841" width="21.7109375" style="61" customWidth="1"/>
-    <col min="3842" max="3842" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3849" width="11.140625" style="61" customWidth="1"/>
-    <col min="3850" max="3850" width="12.140625" style="61" customWidth="1"/>
-    <col min="3851" max="3851" width="10.140625" style="61" customWidth="1"/>
-    <col min="3852" max="3857" width="15.7109375" style="61" customWidth="1"/>
-    <col min="3858" max="3858" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3859" max="3859" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3860" max="3860" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="3861" max="4096" width="9.140625" style="61"/>
-    <col min="4097" max="4097" width="21.7109375" style="61" customWidth="1"/>
-    <col min="4098" max="4098" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4105" width="11.140625" style="61" customWidth="1"/>
-    <col min="4106" max="4106" width="12.140625" style="61" customWidth="1"/>
-    <col min="4107" max="4107" width="10.140625" style="61" customWidth="1"/>
-    <col min="4108" max="4113" width="15.7109375" style="61" customWidth="1"/>
-    <col min="4114" max="4114" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4115" max="4115" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4116" max="4116" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="4117" max="4352" width="9.140625" style="61"/>
-    <col min="4353" max="4353" width="21.7109375" style="61" customWidth="1"/>
-    <col min="4354" max="4354" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4361" width="11.140625" style="61" customWidth="1"/>
-    <col min="4362" max="4362" width="12.140625" style="61" customWidth="1"/>
-    <col min="4363" max="4363" width="10.140625" style="61" customWidth="1"/>
-    <col min="4364" max="4369" width="15.7109375" style="61" customWidth="1"/>
-    <col min="4370" max="4370" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4371" max="4371" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4372" max="4372" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="4373" max="4608" width="9.140625" style="61"/>
-    <col min="4609" max="4609" width="21.7109375" style="61" customWidth="1"/>
-    <col min="4610" max="4610" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4617" width="11.140625" style="61" customWidth="1"/>
-    <col min="4618" max="4618" width="12.140625" style="61" customWidth="1"/>
-    <col min="4619" max="4619" width="10.140625" style="61" customWidth="1"/>
-    <col min="4620" max="4625" width="15.7109375" style="61" customWidth="1"/>
-    <col min="4626" max="4626" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4627" max="4627" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4628" max="4628" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="4629" max="4864" width="9.140625" style="61"/>
-    <col min="4865" max="4865" width="21.7109375" style="61" customWidth="1"/>
-    <col min="4866" max="4866" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4873" width="11.140625" style="61" customWidth="1"/>
-    <col min="4874" max="4874" width="12.140625" style="61" customWidth="1"/>
-    <col min="4875" max="4875" width="10.140625" style="61" customWidth="1"/>
-    <col min="4876" max="4881" width="15.7109375" style="61" customWidth="1"/>
-    <col min="4882" max="4882" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4883" max="4883" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4884" max="4884" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="4885" max="5120" width="9.140625" style="61"/>
-    <col min="5121" max="5121" width="21.7109375" style="61" customWidth="1"/>
-    <col min="5122" max="5122" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5129" width="11.140625" style="61" customWidth="1"/>
-    <col min="5130" max="5130" width="12.140625" style="61" customWidth="1"/>
-    <col min="5131" max="5131" width="10.140625" style="61" customWidth="1"/>
-    <col min="5132" max="5137" width="15.7109375" style="61" customWidth="1"/>
-    <col min="5138" max="5138" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5139" max="5139" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5140" max="5140" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="5141" max="5376" width="9.140625" style="61"/>
-    <col min="5377" max="5377" width="21.7109375" style="61" customWidth="1"/>
-    <col min="5378" max="5378" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5385" width="11.140625" style="61" customWidth="1"/>
-    <col min="5386" max="5386" width="12.140625" style="61" customWidth="1"/>
-    <col min="5387" max="5387" width="10.140625" style="61" customWidth="1"/>
-    <col min="5388" max="5393" width="15.7109375" style="61" customWidth="1"/>
-    <col min="5394" max="5394" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5395" max="5395" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5396" max="5396" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="5397" max="5632" width="9.140625" style="61"/>
-    <col min="5633" max="5633" width="21.7109375" style="61" customWidth="1"/>
-    <col min="5634" max="5634" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5641" width="11.140625" style="61" customWidth="1"/>
-    <col min="5642" max="5642" width="12.140625" style="61" customWidth="1"/>
-    <col min="5643" max="5643" width="10.140625" style="61" customWidth="1"/>
-    <col min="5644" max="5649" width="15.7109375" style="61" customWidth="1"/>
-    <col min="5650" max="5650" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5651" max="5651" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5652" max="5652" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="5653" max="5888" width="9.140625" style="61"/>
-    <col min="5889" max="5889" width="21.7109375" style="61" customWidth="1"/>
-    <col min="5890" max="5890" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5897" width="11.140625" style="61" customWidth="1"/>
-    <col min="5898" max="5898" width="12.140625" style="61" customWidth="1"/>
-    <col min="5899" max="5899" width="10.140625" style="61" customWidth="1"/>
-    <col min="5900" max="5905" width="15.7109375" style="61" customWidth="1"/>
-    <col min="5906" max="5906" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5907" max="5907" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5908" max="5908" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="5909" max="6144" width="9.140625" style="61"/>
-    <col min="6145" max="6145" width="21.7109375" style="61" customWidth="1"/>
-    <col min="6146" max="6146" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6153" width="11.140625" style="61" customWidth="1"/>
-    <col min="6154" max="6154" width="12.140625" style="61" customWidth="1"/>
-    <col min="6155" max="6155" width="10.140625" style="61" customWidth="1"/>
-    <col min="6156" max="6161" width="15.7109375" style="61" customWidth="1"/>
-    <col min="6162" max="6162" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6163" max="6163" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6164" max="6164" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="6165" max="6400" width="9.140625" style="61"/>
-    <col min="6401" max="6401" width="21.7109375" style="61" customWidth="1"/>
-    <col min="6402" max="6402" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6409" width="11.140625" style="61" customWidth="1"/>
-    <col min="6410" max="6410" width="12.140625" style="61" customWidth="1"/>
-    <col min="6411" max="6411" width="10.140625" style="61" customWidth="1"/>
-    <col min="6412" max="6417" width="15.7109375" style="61" customWidth="1"/>
-    <col min="6418" max="6418" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6419" max="6419" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6420" max="6420" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="6421" max="6656" width="9.140625" style="61"/>
-    <col min="6657" max="6657" width="21.7109375" style="61" customWidth="1"/>
-    <col min="6658" max="6658" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6665" width="11.140625" style="61" customWidth="1"/>
-    <col min="6666" max="6666" width="12.140625" style="61" customWidth="1"/>
-    <col min="6667" max="6667" width="10.140625" style="61" customWidth="1"/>
-    <col min="6668" max="6673" width="15.7109375" style="61" customWidth="1"/>
-    <col min="6674" max="6674" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6675" max="6675" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6676" max="6676" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="6677" max="6912" width="9.140625" style="61"/>
-    <col min="6913" max="6913" width="21.7109375" style="61" customWidth="1"/>
-    <col min="6914" max="6914" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6921" width="11.140625" style="61" customWidth="1"/>
-    <col min="6922" max="6922" width="12.140625" style="61" customWidth="1"/>
-    <col min="6923" max="6923" width="10.140625" style="61" customWidth="1"/>
-    <col min="6924" max="6929" width="15.7109375" style="61" customWidth="1"/>
-    <col min="6930" max="6930" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6931" max="6931" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6932" max="6932" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="6933" max="7168" width="9.140625" style="61"/>
-    <col min="7169" max="7169" width="21.7109375" style="61" customWidth="1"/>
-    <col min="7170" max="7170" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7177" width="11.140625" style="61" customWidth="1"/>
-    <col min="7178" max="7178" width="12.140625" style="61" customWidth="1"/>
-    <col min="7179" max="7179" width="10.140625" style="61" customWidth="1"/>
-    <col min="7180" max="7185" width="15.7109375" style="61" customWidth="1"/>
-    <col min="7186" max="7186" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7187" max="7187" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7188" max="7188" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="7189" max="7424" width="9.140625" style="61"/>
-    <col min="7425" max="7425" width="21.7109375" style="61" customWidth="1"/>
-    <col min="7426" max="7426" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7433" width="11.140625" style="61" customWidth="1"/>
-    <col min="7434" max="7434" width="12.140625" style="61" customWidth="1"/>
-    <col min="7435" max="7435" width="10.140625" style="61" customWidth="1"/>
-    <col min="7436" max="7441" width="15.7109375" style="61" customWidth="1"/>
-    <col min="7442" max="7442" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7443" max="7443" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7444" max="7444" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="7445" max="7680" width="9.140625" style="61"/>
-    <col min="7681" max="7681" width="21.7109375" style="61" customWidth="1"/>
-    <col min="7682" max="7682" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7689" width="11.140625" style="61" customWidth="1"/>
-    <col min="7690" max="7690" width="12.140625" style="61" customWidth="1"/>
-    <col min="7691" max="7691" width="10.140625" style="61" customWidth="1"/>
-    <col min="7692" max="7697" width="15.7109375" style="61" customWidth="1"/>
-    <col min="7698" max="7698" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7699" max="7699" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7700" max="7700" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="7701" max="7936" width="9.140625" style="61"/>
-    <col min="7937" max="7937" width="21.7109375" style="61" customWidth="1"/>
-    <col min="7938" max="7938" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7945" width="11.140625" style="61" customWidth="1"/>
-    <col min="7946" max="7946" width="12.140625" style="61" customWidth="1"/>
-    <col min="7947" max="7947" width="10.140625" style="61" customWidth="1"/>
-    <col min="7948" max="7953" width="15.7109375" style="61" customWidth="1"/>
-    <col min="7954" max="7954" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7955" max="7955" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7956" max="7956" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="7957" max="8192" width="9.140625" style="61"/>
-    <col min="8193" max="8193" width="21.7109375" style="61" customWidth="1"/>
-    <col min="8194" max="8194" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8201" width="11.140625" style="61" customWidth="1"/>
-    <col min="8202" max="8202" width="12.140625" style="61" customWidth="1"/>
-    <col min="8203" max="8203" width="10.140625" style="61" customWidth="1"/>
-    <col min="8204" max="8209" width="15.7109375" style="61" customWidth="1"/>
-    <col min="8210" max="8210" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8211" max="8211" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8212" max="8212" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="8213" max="8448" width="9.140625" style="61"/>
-    <col min="8449" max="8449" width="21.7109375" style="61" customWidth="1"/>
-    <col min="8450" max="8450" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8457" width="11.140625" style="61" customWidth="1"/>
-    <col min="8458" max="8458" width="12.140625" style="61" customWidth="1"/>
-    <col min="8459" max="8459" width="10.140625" style="61" customWidth="1"/>
-    <col min="8460" max="8465" width="15.7109375" style="61" customWidth="1"/>
-    <col min="8466" max="8466" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8467" max="8467" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8468" max="8468" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="8469" max="8704" width="9.140625" style="61"/>
-    <col min="8705" max="8705" width="21.7109375" style="61" customWidth="1"/>
-    <col min="8706" max="8706" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8713" width="11.140625" style="61" customWidth="1"/>
-    <col min="8714" max="8714" width="12.140625" style="61" customWidth="1"/>
-    <col min="8715" max="8715" width="10.140625" style="61" customWidth="1"/>
-    <col min="8716" max="8721" width="15.7109375" style="61" customWidth="1"/>
-    <col min="8722" max="8722" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8723" max="8723" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8724" max="8724" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="8725" max="8960" width="9.140625" style="61"/>
-    <col min="8961" max="8961" width="21.7109375" style="61" customWidth="1"/>
-    <col min="8962" max="8962" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8969" width="11.140625" style="61" customWidth="1"/>
-    <col min="8970" max="8970" width="12.140625" style="61" customWidth="1"/>
-    <col min="8971" max="8971" width="10.140625" style="61" customWidth="1"/>
-    <col min="8972" max="8977" width="15.7109375" style="61" customWidth="1"/>
-    <col min="8978" max="8978" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8979" max="8979" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8980" max="8980" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="8981" max="9216" width="9.140625" style="61"/>
-    <col min="9217" max="9217" width="21.7109375" style="61" customWidth="1"/>
-    <col min="9218" max="9218" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9225" width="11.140625" style="61" customWidth="1"/>
-    <col min="9226" max="9226" width="12.140625" style="61" customWidth="1"/>
-    <col min="9227" max="9227" width="10.140625" style="61" customWidth="1"/>
-    <col min="9228" max="9233" width="15.7109375" style="61" customWidth="1"/>
-    <col min="9234" max="9234" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9235" max="9235" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9236" max="9236" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="9237" max="9472" width="9.140625" style="61"/>
-    <col min="9473" max="9473" width="21.7109375" style="61" customWidth="1"/>
-    <col min="9474" max="9474" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9481" width="11.140625" style="61" customWidth="1"/>
-    <col min="9482" max="9482" width="12.140625" style="61" customWidth="1"/>
-    <col min="9483" max="9483" width="10.140625" style="61" customWidth="1"/>
-    <col min="9484" max="9489" width="15.7109375" style="61" customWidth="1"/>
-    <col min="9490" max="9490" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9491" max="9491" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9492" max="9492" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="9493" max="9728" width="9.140625" style="61"/>
-    <col min="9729" max="9729" width="21.7109375" style="61" customWidth="1"/>
-    <col min="9730" max="9730" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9737" width="11.140625" style="61" customWidth="1"/>
-    <col min="9738" max="9738" width="12.140625" style="61" customWidth="1"/>
-    <col min="9739" max="9739" width="10.140625" style="61" customWidth="1"/>
-    <col min="9740" max="9745" width="15.7109375" style="61" customWidth="1"/>
-    <col min="9746" max="9746" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9747" max="9747" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9748" max="9748" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="9749" max="9984" width="9.140625" style="61"/>
-    <col min="9985" max="9985" width="21.7109375" style="61" customWidth="1"/>
-    <col min="9986" max="9986" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9993" width="11.140625" style="61" customWidth="1"/>
-    <col min="9994" max="9994" width="12.140625" style="61" customWidth="1"/>
-    <col min="9995" max="9995" width="10.140625" style="61" customWidth="1"/>
-    <col min="9996" max="10001" width="15.7109375" style="61" customWidth="1"/>
-    <col min="10002" max="10002" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10003" max="10003" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10004" max="10004" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="10005" max="10240" width="9.140625" style="61"/>
-    <col min="10241" max="10241" width="21.7109375" style="61" customWidth="1"/>
-    <col min="10242" max="10242" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10249" width="11.140625" style="61" customWidth="1"/>
-    <col min="10250" max="10250" width="12.140625" style="61" customWidth="1"/>
-    <col min="10251" max="10251" width="10.140625" style="61" customWidth="1"/>
-    <col min="10252" max="10257" width="15.7109375" style="61" customWidth="1"/>
-    <col min="10258" max="10258" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10259" max="10259" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10260" max="10260" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="10261" max="10496" width="9.140625" style="61"/>
-    <col min="10497" max="10497" width="21.7109375" style="61" customWidth="1"/>
-    <col min="10498" max="10498" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10505" width="11.140625" style="61" customWidth="1"/>
-    <col min="10506" max="10506" width="12.140625" style="61" customWidth="1"/>
-    <col min="10507" max="10507" width="10.140625" style="61" customWidth="1"/>
-    <col min="10508" max="10513" width="15.7109375" style="61" customWidth="1"/>
-    <col min="10514" max="10514" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10515" max="10515" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10516" max="10516" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="10517" max="10752" width="9.140625" style="61"/>
-    <col min="10753" max="10753" width="21.7109375" style="61" customWidth="1"/>
-    <col min="10754" max="10754" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10761" width="11.140625" style="61" customWidth="1"/>
-    <col min="10762" max="10762" width="12.140625" style="61" customWidth="1"/>
-    <col min="10763" max="10763" width="10.140625" style="61" customWidth="1"/>
-    <col min="10764" max="10769" width="15.7109375" style="61" customWidth="1"/>
-    <col min="10770" max="10770" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10771" max="10771" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10772" max="10772" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="10773" max="11008" width="9.140625" style="61"/>
-    <col min="11009" max="11009" width="21.7109375" style="61" customWidth="1"/>
-    <col min="11010" max="11010" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11017" width="11.140625" style="61" customWidth="1"/>
-    <col min="11018" max="11018" width="12.140625" style="61" customWidth="1"/>
-    <col min="11019" max="11019" width="10.140625" style="61" customWidth="1"/>
-    <col min="11020" max="11025" width="15.7109375" style="61" customWidth="1"/>
-    <col min="11026" max="11026" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11027" max="11027" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11028" max="11028" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="11029" max="11264" width="9.140625" style="61"/>
-    <col min="11265" max="11265" width="21.7109375" style="61" customWidth="1"/>
-    <col min="11266" max="11266" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11273" width="11.140625" style="61" customWidth="1"/>
-    <col min="11274" max="11274" width="12.140625" style="61" customWidth="1"/>
-    <col min="11275" max="11275" width="10.140625" style="61" customWidth="1"/>
-    <col min="11276" max="11281" width="15.7109375" style="61" customWidth="1"/>
-    <col min="11282" max="11282" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11283" max="11283" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11284" max="11284" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="11285" max="11520" width="9.140625" style="61"/>
-    <col min="11521" max="11521" width="21.7109375" style="61" customWidth="1"/>
-    <col min="11522" max="11522" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11529" width="11.140625" style="61" customWidth="1"/>
-    <col min="11530" max="11530" width="12.140625" style="61" customWidth="1"/>
-    <col min="11531" max="11531" width="10.140625" style="61" customWidth="1"/>
-    <col min="11532" max="11537" width="15.7109375" style="61" customWidth="1"/>
-    <col min="11538" max="11538" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11539" max="11539" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11540" max="11540" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="11541" max="11776" width="9.140625" style="61"/>
-    <col min="11777" max="11777" width="21.7109375" style="61" customWidth="1"/>
-    <col min="11778" max="11778" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11785" width="11.140625" style="61" customWidth="1"/>
-    <col min="11786" max="11786" width="12.140625" style="61" customWidth="1"/>
-    <col min="11787" max="11787" width="10.140625" style="61" customWidth="1"/>
-    <col min="11788" max="11793" width="15.7109375" style="61" customWidth="1"/>
-    <col min="11794" max="11794" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11795" max="11795" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11796" max="11796" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="11797" max="12032" width="9.140625" style="61"/>
-    <col min="12033" max="12033" width="21.7109375" style="61" customWidth="1"/>
-    <col min="12034" max="12034" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12041" width="11.140625" style="61" customWidth="1"/>
-    <col min="12042" max="12042" width="12.140625" style="61" customWidth="1"/>
-    <col min="12043" max="12043" width="10.140625" style="61" customWidth="1"/>
-    <col min="12044" max="12049" width="15.7109375" style="61" customWidth="1"/>
-    <col min="12050" max="12050" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12051" max="12051" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12052" max="12052" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="12053" max="12288" width="9.140625" style="61"/>
-    <col min="12289" max="12289" width="21.7109375" style="61" customWidth="1"/>
-    <col min="12290" max="12290" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12297" width="11.140625" style="61" customWidth="1"/>
-    <col min="12298" max="12298" width="12.140625" style="61" customWidth="1"/>
-    <col min="12299" max="12299" width="10.140625" style="61" customWidth="1"/>
-    <col min="12300" max="12305" width="15.7109375" style="61" customWidth="1"/>
-    <col min="12306" max="12306" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12307" max="12307" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12308" max="12308" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="12309" max="12544" width="9.140625" style="61"/>
-    <col min="12545" max="12545" width="21.7109375" style="61" customWidth="1"/>
-    <col min="12546" max="12546" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12553" width="11.140625" style="61" customWidth="1"/>
-    <col min="12554" max="12554" width="12.140625" style="61" customWidth="1"/>
-    <col min="12555" max="12555" width="10.140625" style="61" customWidth="1"/>
-    <col min="12556" max="12561" width="15.7109375" style="61" customWidth="1"/>
-    <col min="12562" max="12562" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12563" max="12563" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12564" max="12564" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="12565" max="12800" width="9.140625" style="61"/>
-    <col min="12801" max="12801" width="21.7109375" style="61" customWidth="1"/>
-    <col min="12802" max="12802" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12809" width="11.140625" style="61" customWidth="1"/>
-    <col min="12810" max="12810" width="12.140625" style="61" customWidth="1"/>
-    <col min="12811" max="12811" width="10.140625" style="61" customWidth="1"/>
-    <col min="12812" max="12817" width="15.7109375" style="61" customWidth="1"/>
-    <col min="12818" max="12818" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12819" max="12819" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12820" max="12820" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="12821" max="13056" width="9.140625" style="61"/>
-    <col min="13057" max="13057" width="21.7109375" style="61" customWidth="1"/>
-    <col min="13058" max="13058" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13065" width="11.140625" style="61" customWidth="1"/>
-    <col min="13066" max="13066" width="12.140625" style="61" customWidth="1"/>
-    <col min="13067" max="13067" width="10.140625" style="61" customWidth="1"/>
-    <col min="13068" max="13073" width="15.7109375" style="61" customWidth="1"/>
-    <col min="13074" max="13074" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13075" max="13075" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13076" max="13076" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="13077" max="13312" width="9.140625" style="61"/>
-    <col min="13313" max="13313" width="21.7109375" style="61" customWidth="1"/>
-    <col min="13314" max="13314" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13321" width="11.140625" style="61" customWidth="1"/>
-    <col min="13322" max="13322" width="12.140625" style="61" customWidth="1"/>
-    <col min="13323" max="13323" width="10.140625" style="61" customWidth="1"/>
-    <col min="13324" max="13329" width="15.7109375" style="61" customWidth="1"/>
-    <col min="13330" max="13330" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13331" max="13331" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13332" max="13332" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="13333" max="13568" width="9.140625" style="61"/>
-    <col min="13569" max="13569" width="21.7109375" style="61" customWidth="1"/>
-    <col min="13570" max="13570" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13577" width="11.140625" style="61" customWidth="1"/>
-    <col min="13578" max="13578" width="12.140625" style="61" customWidth="1"/>
-    <col min="13579" max="13579" width="10.140625" style="61" customWidth="1"/>
-    <col min="13580" max="13585" width="15.7109375" style="61" customWidth="1"/>
-    <col min="13586" max="13586" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13587" max="13587" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13588" max="13588" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="13589" max="13824" width="9.140625" style="61"/>
-    <col min="13825" max="13825" width="21.7109375" style="61" customWidth="1"/>
-    <col min="13826" max="13826" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13833" width="11.140625" style="61" customWidth="1"/>
-    <col min="13834" max="13834" width="12.140625" style="61" customWidth="1"/>
-    <col min="13835" max="13835" width="10.140625" style="61" customWidth="1"/>
-    <col min="13836" max="13841" width="15.7109375" style="61" customWidth="1"/>
-    <col min="13842" max="13842" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13843" max="13843" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13844" max="13844" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="13845" max="14080" width="9.140625" style="61"/>
-    <col min="14081" max="14081" width="21.7109375" style="61" customWidth="1"/>
-    <col min="14082" max="14082" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14089" width="11.140625" style="61" customWidth="1"/>
-    <col min="14090" max="14090" width="12.140625" style="61" customWidth="1"/>
-    <col min="14091" max="14091" width="10.140625" style="61" customWidth="1"/>
-    <col min="14092" max="14097" width="15.7109375" style="61" customWidth="1"/>
-    <col min="14098" max="14098" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14099" max="14099" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14100" max="14100" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="14101" max="14336" width="9.140625" style="61"/>
-    <col min="14337" max="14337" width="21.7109375" style="61" customWidth="1"/>
-    <col min="14338" max="14338" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14345" width="11.140625" style="61" customWidth="1"/>
-    <col min="14346" max="14346" width="12.140625" style="61" customWidth="1"/>
-    <col min="14347" max="14347" width="10.140625" style="61" customWidth="1"/>
-    <col min="14348" max="14353" width="15.7109375" style="61" customWidth="1"/>
-    <col min="14354" max="14354" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14355" max="14355" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14356" max="14356" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="14357" max="14592" width="9.140625" style="61"/>
-    <col min="14593" max="14593" width="21.7109375" style="61" customWidth="1"/>
-    <col min="14594" max="14594" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14601" width="11.140625" style="61" customWidth="1"/>
-    <col min="14602" max="14602" width="12.140625" style="61" customWidth="1"/>
-    <col min="14603" max="14603" width="10.140625" style="61" customWidth="1"/>
-    <col min="14604" max="14609" width="15.7109375" style="61" customWidth="1"/>
-    <col min="14610" max="14610" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14611" max="14611" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14612" max="14612" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="14613" max="14848" width="9.140625" style="61"/>
-    <col min="14849" max="14849" width="21.7109375" style="61" customWidth="1"/>
-    <col min="14850" max="14850" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14857" width="11.140625" style="61" customWidth="1"/>
-    <col min="14858" max="14858" width="12.140625" style="61" customWidth="1"/>
-    <col min="14859" max="14859" width="10.140625" style="61" customWidth="1"/>
-    <col min="14860" max="14865" width="15.7109375" style="61" customWidth="1"/>
-    <col min="14866" max="14866" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14867" max="14867" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14868" max="14868" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="14869" max="15104" width="9.140625" style="61"/>
-    <col min="15105" max="15105" width="21.7109375" style="61" customWidth="1"/>
-    <col min="15106" max="15106" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15113" width="11.140625" style="61" customWidth="1"/>
-    <col min="15114" max="15114" width="12.140625" style="61" customWidth="1"/>
-    <col min="15115" max="15115" width="10.140625" style="61" customWidth="1"/>
-    <col min="15116" max="15121" width="15.7109375" style="61" customWidth="1"/>
-    <col min="15122" max="15122" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15123" max="15123" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15124" max="15124" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="15125" max="15360" width="9.140625" style="61"/>
-    <col min="15361" max="15361" width="21.7109375" style="61" customWidth="1"/>
-    <col min="15362" max="15362" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15369" width="11.140625" style="61" customWidth="1"/>
-    <col min="15370" max="15370" width="12.140625" style="61" customWidth="1"/>
-    <col min="15371" max="15371" width="10.140625" style="61" customWidth="1"/>
-    <col min="15372" max="15377" width="15.7109375" style="61" customWidth="1"/>
-    <col min="15378" max="15378" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15379" max="15379" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15380" max="15380" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="15381" max="15616" width="9.140625" style="61"/>
-    <col min="15617" max="15617" width="21.7109375" style="61" customWidth="1"/>
-    <col min="15618" max="15618" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15625" width="11.140625" style="61" customWidth="1"/>
-    <col min="15626" max="15626" width="12.140625" style="61" customWidth="1"/>
-    <col min="15627" max="15627" width="10.140625" style="61" customWidth="1"/>
-    <col min="15628" max="15633" width="15.7109375" style="61" customWidth="1"/>
-    <col min="15634" max="15634" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15635" max="15635" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15636" max="15636" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="15637" max="15872" width="9.140625" style="61"/>
-    <col min="15873" max="15873" width="21.7109375" style="61" customWidth="1"/>
-    <col min="15874" max="15874" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15881" width="11.140625" style="61" customWidth="1"/>
-    <col min="15882" max="15882" width="12.140625" style="61" customWidth="1"/>
-    <col min="15883" max="15883" width="10.140625" style="61" customWidth="1"/>
-    <col min="15884" max="15889" width="15.7109375" style="61" customWidth="1"/>
-    <col min="15890" max="15890" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15891" max="15891" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15892" max="15892" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="15893" max="16128" width="9.140625" style="61"/>
-    <col min="16129" max="16129" width="21.7109375" style="61" customWidth="1"/>
-    <col min="16130" max="16130" width="14.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="14.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16137" width="11.140625" style="61" customWidth="1"/>
-    <col min="16138" max="16138" width="12.140625" style="61" customWidth="1"/>
-    <col min="16139" max="16139" width="10.140625" style="61" customWidth="1"/>
-    <col min="16140" max="16145" width="15.7109375" style="61" customWidth="1"/>
-    <col min="16146" max="16146" width="14.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16147" max="16147" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16148" max="16148" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="16149" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="21.71875" style="35" customWidth="1"/>
+    <col min="2" max="4" width="12.71875" style="51" customWidth="1"/>
+    <col min="5" max="7" width="11.1640625" style="51" customWidth="1"/>
+    <col min="8" max="10" width="9.71875" style="51" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="35" customWidth="1"/>
+    <col min="12" max="17" width="15.71875" style="35" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="21" max="256" width="9.1640625" style="35"/>
+    <col min="257" max="257" width="21.71875" style="35" customWidth="1"/>
+    <col min="258" max="258" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="261" max="265" width="11.1640625" style="35" customWidth="1"/>
+    <col min="266" max="266" width="12.1640625" style="35" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" style="35" customWidth="1"/>
+    <col min="268" max="273" width="15.71875" style="35" customWidth="1"/>
+    <col min="274" max="274" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="277" max="512" width="9.1640625" style="35"/>
+    <col min="513" max="513" width="21.71875" style="35" customWidth="1"/>
+    <col min="514" max="514" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="517" max="521" width="11.1640625" style="35" customWidth="1"/>
+    <col min="522" max="522" width="12.1640625" style="35" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" style="35" customWidth="1"/>
+    <col min="524" max="529" width="15.71875" style="35" customWidth="1"/>
+    <col min="530" max="530" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="533" max="768" width="9.1640625" style="35"/>
+    <col min="769" max="769" width="21.71875" style="35" customWidth="1"/>
+    <col min="770" max="770" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="773" max="777" width="11.1640625" style="35" customWidth="1"/>
+    <col min="778" max="778" width="12.1640625" style="35" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" style="35" customWidth="1"/>
+    <col min="780" max="785" width="15.71875" style="35" customWidth="1"/>
+    <col min="786" max="786" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="787" max="787" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="788" max="788" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="789" max="1024" width="9.1640625" style="35"/>
+    <col min="1025" max="1025" width="21.71875" style="35" customWidth="1"/>
+    <col min="1026" max="1026" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1033" width="11.1640625" style="35" customWidth="1"/>
+    <col min="1034" max="1034" width="12.1640625" style="35" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" style="35" customWidth="1"/>
+    <col min="1036" max="1041" width="15.71875" style="35" customWidth="1"/>
+    <col min="1042" max="1042" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1043" max="1043" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1044" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="1045" max="1280" width="9.1640625" style="35"/>
+    <col min="1281" max="1281" width="21.71875" style="35" customWidth="1"/>
+    <col min="1282" max="1282" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1289" width="11.1640625" style="35" customWidth="1"/>
+    <col min="1290" max="1290" width="12.1640625" style="35" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" style="35" customWidth="1"/>
+    <col min="1292" max="1297" width="15.71875" style="35" customWidth="1"/>
+    <col min="1298" max="1298" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1299" max="1299" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1300" max="1300" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="1301" max="1536" width="9.1640625" style="35"/>
+    <col min="1537" max="1537" width="21.71875" style="35" customWidth="1"/>
+    <col min="1538" max="1538" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1545" width="11.1640625" style="35" customWidth="1"/>
+    <col min="1546" max="1546" width="12.1640625" style="35" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" style="35" customWidth="1"/>
+    <col min="1548" max="1553" width="15.71875" style="35" customWidth="1"/>
+    <col min="1554" max="1554" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1555" max="1555" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1556" max="1556" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="1557" max="1792" width="9.1640625" style="35"/>
+    <col min="1793" max="1793" width="21.71875" style="35" customWidth="1"/>
+    <col min="1794" max="1794" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1801" width="11.1640625" style="35" customWidth="1"/>
+    <col min="1802" max="1802" width="12.1640625" style="35" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" style="35" customWidth="1"/>
+    <col min="1804" max="1809" width="15.71875" style="35" customWidth="1"/>
+    <col min="1810" max="1810" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1811" max="1811" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1812" max="1812" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="1813" max="2048" width="9.1640625" style="35"/>
+    <col min="2049" max="2049" width="21.71875" style="35" customWidth="1"/>
+    <col min="2050" max="2050" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2057" width="11.1640625" style="35" customWidth="1"/>
+    <col min="2058" max="2058" width="12.1640625" style="35" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" style="35" customWidth="1"/>
+    <col min="2060" max="2065" width="15.71875" style="35" customWidth="1"/>
+    <col min="2066" max="2066" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2067" max="2067" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2068" max="2068" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="2069" max="2304" width="9.1640625" style="35"/>
+    <col min="2305" max="2305" width="21.71875" style="35" customWidth="1"/>
+    <col min="2306" max="2306" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2313" width="11.1640625" style="35" customWidth="1"/>
+    <col min="2314" max="2314" width="12.1640625" style="35" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" style="35" customWidth="1"/>
+    <col min="2316" max="2321" width="15.71875" style="35" customWidth="1"/>
+    <col min="2322" max="2322" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2323" max="2323" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2324" max="2324" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="2325" max="2560" width="9.1640625" style="35"/>
+    <col min="2561" max="2561" width="21.71875" style="35" customWidth="1"/>
+    <col min="2562" max="2562" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2569" width="11.1640625" style="35" customWidth="1"/>
+    <col min="2570" max="2570" width="12.1640625" style="35" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" style="35" customWidth="1"/>
+    <col min="2572" max="2577" width="15.71875" style="35" customWidth="1"/>
+    <col min="2578" max="2578" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2579" max="2579" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2580" max="2580" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="2581" max="2816" width="9.1640625" style="35"/>
+    <col min="2817" max="2817" width="21.71875" style="35" customWidth="1"/>
+    <col min="2818" max="2818" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2825" width="11.1640625" style="35" customWidth="1"/>
+    <col min="2826" max="2826" width="12.1640625" style="35" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" style="35" customWidth="1"/>
+    <col min="2828" max="2833" width="15.71875" style="35" customWidth="1"/>
+    <col min="2834" max="2834" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2835" max="2835" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2836" max="2836" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="2837" max="3072" width="9.1640625" style="35"/>
+    <col min="3073" max="3073" width="21.71875" style="35" customWidth="1"/>
+    <col min="3074" max="3074" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3081" width="11.1640625" style="35" customWidth="1"/>
+    <col min="3082" max="3082" width="12.1640625" style="35" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" style="35" customWidth="1"/>
+    <col min="3084" max="3089" width="15.71875" style="35" customWidth="1"/>
+    <col min="3090" max="3090" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3091" max="3091" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3092" max="3092" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="3093" max="3328" width="9.1640625" style="35"/>
+    <col min="3329" max="3329" width="21.71875" style="35" customWidth="1"/>
+    <col min="3330" max="3330" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3337" width="11.1640625" style="35" customWidth="1"/>
+    <col min="3338" max="3338" width="12.1640625" style="35" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" style="35" customWidth="1"/>
+    <col min="3340" max="3345" width="15.71875" style="35" customWidth="1"/>
+    <col min="3346" max="3346" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3347" max="3347" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3348" max="3348" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="3349" max="3584" width="9.1640625" style="35"/>
+    <col min="3585" max="3585" width="21.71875" style="35" customWidth="1"/>
+    <col min="3586" max="3586" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3593" width="11.1640625" style="35" customWidth="1"/>
+    <col min="3594" max="3594" width="12.1640625" style="35" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" style="35" customWidth="1"/>
+    <col min="3596" max="3601" width="15.71875" style="35" customWidth="1"/>
+    <col min="3602" max="3602" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3603" max="3603" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3604" max="3604" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="3605" max="3840" width="9.1640625" style="35"/>
+    <col min="3841" max="3841" width="21.71875" style="35" customWidth="1"/>
+    <col min="3842" max="3842" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3849" width="11.1640625" style="35" customWidth="1"/>
+    <col min="3850" max="3850" width="12.1640625" style="35" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" style="35" customWidth="1"/>
+    <col min="3852" max="3857" width="15.71875" style="35" customWidth="1"/>
+    <col min="3858" max="3858" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3859" max="3859" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3860" max="3860" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="3861" max="4096" width="9.1640625" style="35"/>
+    <col min="4097" max="4097" width="21.71875" style="35" customWidth="1"/>
+    <col min="4098" max="4098" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4105" width="11.1640625" style="35" customWidth="1"/>
+    <col min="4106" max="4106" width="12.1640625" style="35" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" style="35" customWidth="1"/>
+    <col min="4108" max="4113" width="15.71875" style="35" customWidth="1"/>
+    <col min="4114" max="4114" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4115" max="4115" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4116" max="4116" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="4117" max="4352" width="9.1640625" style="35"/>
+    <col min="4353" max="4353" width="21.71875" style="35" customWidth="1"/>
+    <col min="4354" max="4354" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4361" width="11.1640625" style="35" customWidth="1"/>
+    <col min="4362" max="4362" width="12.1640625" style="35" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" style="35" customWidth="1"/>
+    <col min="4364" max="4369" width="15.71875" style="35" customWidth="1"/>
+    <col min="4370" max="4370" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4371" max="4371" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4372" max="4372" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="4373" max="4608" width="9.1640625" style="35"/>
+    <col min="4609" max="4609" width="21.71875" style="35" customWidth="1"/>
+    <col min="4610" max="4610" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4617" width="11.1640625" style="35" customWidth="1"/>
+    <col min="4618" max="4618" width="12.1640625" style="35" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" style="35" customWidth="1"/>
+    <col min="4620" max="4625" width="15.71875" style="35" customWidth="1"/>
+    <col min="4626" max="4626" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4627" max="4627" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4628" max="4628" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="4629" max="4864" width="9.1640625" style="35"/>
+    <col min="4865" max="4865" width="21.71875" style="35" customWidth="1"/>
+    <col min="4866" max="4866" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4873" width="11.1640625" style="35" customWidth="1"/>
+    <col min="4874" max="4874" width="12.1640625" style="35" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" style="35" customWidth="1"/>
+    <col min="4876" max="4881" width="15.71875" style="35" customWidth="1"/>
+    <col min="4882" max="4882" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4883" max="4883" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4884" max="4884" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="4885" max="5120" width="9.1640625" style="35"/>
+    <col min="5121" max="5121" width="21.71875" style="35" customWidth="1"/>
+    <col min="5122" max="5122" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5129" width="11.1640625" style="35" customWidth="1"/>
+    <col min="5130" max="5130" width="12.1640625" style="35" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" style="35" customWidth="1"/>
+    <col min="5132" max="5137" width="15.71875" style="35" customWidth="1"/>
+    <col min="5138" max="5138" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5139" max="5139" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5140" max="5140" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5141" max="5376" width="9.1640625" style="35"/>
+    <col min="5377" max="5377" width="21.71875" style="35" customWidth="1"/>
+    <col min="5378" max="5378" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5385" width="11.1640625" style="35" customWidth="1"/>
+    <col min="5386" max="5386" width="12.1640625" style="35" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" style="35" customWidth="1"/>
+    <col min="5388" max="5393" width="15.71875" style="35" customWidth="1"/>
+    <col min="5394" max="5394" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5395" max="5395" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5396" max="5396" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5397" max="5632" width="9.1640625" style="35"/>
+    <col min="5633" max="5633" width="21.71875" style="35" customWidth="1"/>
+    <col min="5634" max="5634" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5641" width="11.1640625" style="35" customWidth="1"/>
+    <col min="5642" max="5642" width="12.1640625" style="35" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" style="35" customWidth="1"/>
+    <col min="5644" max="5649" width="15.71875" style="35" customWidth="1"/>
+    <col min="5650" max="5650" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5651" max="5651" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5652" max="5652" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5653" max="5888" width="9.1640625" style="35"/>
+    <col min="5889" max="5889" width="21.71875" style="35" customWidth="1"/>
+    <col min="5890" max="5890" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5897" width="11.1640625" style="35" customWidth="1"/>
+    <col min="5898" max="5898" width="12.1640625" style="35" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" style="35" customWidth="1"/>
+    <col min="5900" max="5905" width="15.71875" style="35" customWidth="1"/>
+    <col min="5906" max="5906" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5907" max="5907" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5908" max="5908" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5909" max="6144" width="9.1640625" style="35"/>
+    <col min="6145" max="6145" width="21.71875" style="35" customWidth="1"/>
+    <col min="6146" max="6146" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6153" width="11.1640625" style="35" customWidth="1"/>
+    <col min="6154" max="6154" width="12.1640625" style="35" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" style="35" customWidth="1"/>
+    <col min="6156" max="6161" width="15.71875" style="35" customWidth="1"/>
+    <col min="6162" max="6162" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6163" max="6163" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6164" max="6164" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="6165" max="6400" width="9.1640625" style="35"/>
+    <col min="6401" max="6401" width="21.71875" style="35" customWidth="1"/>
+    <col min="6402" max="6402" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6409" width="11.1640625" style="35" customWidth="1"/>
+    <col min="6410" max="6410" width="12.1640625" style="35" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" style="35" customWidth="1"/>
+    <col min="6412" max="6417" width="15.71875" style="35" customWidth="1"/>
+    <col min="6418" max="6418" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6419" max="6419" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6420" max="6420" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="6421" max="6656" width="9.1640625" style="35"/>
+    <col min="6657" max="6657" width="21.71875" style="35" customWidth="1"/>
+    <col min="6658" max="6658" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6665" width="11.1640625" style="35" customWidth="1"/>
+    <col min="6666" max="6666" width="12.1640625" style="35" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" style="35" customWidth="1"/>
+    <col min="6668" max="6673" width="15.71875" style="35" customWidth="1"/>
+    <col min="6674" max="6674" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6675" max="6675" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6676" max="6676" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="6677" max="6912" width="9.1640625" style="35"/>
+    <col min="6913" max="6913" width="21.71875" style="35" customWidth="1"/>
+    <col min="6914" max="6914" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6921" width="11.1640625" style="35" customWidth="1"/>
+    <col min="6922" max="6922" width="12.1640625" style="35" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" style="35" customWidth="1"/>
+    <col min="6924" max="6929" width="15.71875" style="35" customWidth="1"/>
+    <col min="6930" max="6930" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6931" max="6931" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6932" max="6932" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="6933" max="7168" width="9.1640625" style="35"/>
+    <col min="7169" max="7169" width="21.71875" style="35" customWidth="1"/>
+    <col min="7170" max="7170" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7177" width="11.1640625" style="35" customWidth="1"/>
+    <col min="7178" max="7178" width="12.1640625" style="35" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" style="35" customWidth="1"/>
+    <col min="7180" max="7185" width="15.71875" style="35" customWidth="1"/>
+    <col min="7186" max="7186" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7187" max="7187" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7188" max="7188" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="7189" max="7424" width="9.1640625" style="35"/>
+    <col min="7425" max="7425" width="21.71875" style="35" customWidth="1"/>
+    <col min="7426" max="7426" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7433" width="11.1640625" style="35" customWidth="1"/>
+    <col min="7434" max="7434" width="12.1640625" style="35" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" style="35" customWidth="1"/>
+    <col min="7436" max="7441" width="15.71875" style="35" customWidth="1"/>
+    <col min="7442" max="7442" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7443" max="7443" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7444" max="7444" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="7445" max="7680" width="9.1640625" style="35"/>
+    <col min="7681" max="7681" width="21.71875" style="35" customWidth="1"/>
+    <col min="7682" max="7682" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7689" width="11.1640625" style="35" customWidth="1"/>
+    <col min="7690" max="7690" width="12.1640625" style="35" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" style="35" customWidth="1"/>
+    <col min="7692" max="7697" width="15.71875" style="35" customWidth="1"/>
+    <col min="7698" max="7698" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7699" max="7699" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7700" max="7700" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="7701" max="7936" width="9.1640625" style="35"/>
+    <col min="7937" max="7937" width="21.71875" style="35" customWidth="1"/>
+    <col min="7938" max="7938" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7945" width="11.1640625" style="35" customWidth="1"/>
+    <col min="7946" max="7946" width="12.1640625" style="35" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" style="35" customWidth="1"/>
+    <col min="7948" max="7953" width="15.71875" style="35" customWidth="1"/>
+    <col min="7954" max="7954" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7955" max="7955" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7956" max="7956" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="7957" max="8192" width="9.1640625" style="35"/>
+    <col min="8193" max="8193" width="21.71875" style="35" customWidth="1"/>
+    <col min="8194" max="8194" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8201" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8202" max="8202" width="12.1640625" style="35" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" style="35" customWidth="1"/>
+    <col min="8204" max="8209" width="15.71875" style="35" customWidth="1"/>
+    <col min="8210" max="8210" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8211" max="8211" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8212" max="8212" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="8213" max="8448" width="9.1640625" style="35"/>
+    <col min="8449" max="8449" width="21.71875" style="35" customWidth="1"/>
+    <col min="8450" max="8450" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8457" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8458" max="8458" width="12.1640625" style="35" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" style="35" customWidth="1"/>
+    <col min="8460" max="8465" width="15.71875" style="35" customWidth="1"/>
+    <col min="8466" max="8466" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8467" max="8467" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8468" max="8468" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="8469" max="8704" width="9.1640625" style="35"/>
+    <col min="8705" max="8705" width="21.71875" style="35" customWidth="1"/>
+    <col min="8706" max="8706" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8713" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8714" max="8714" width="12.1640625" style="35" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" style="35" customWidth="1"/>
+    <col min="8716" max="8721" width="15.71875" style="35" customWidth="1"/>
+    <col min="8722" max="8722" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8723" max="8723" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8724" max="8724" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="8725" max="8960" width="9.1640625" style="35"/>
+    <col min="8961" max="8961" width="21.71875" style="35" customWidth="1"/>
+    <col min="8962" max="8962" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8969" width="11.1640625" style="35" customWidth="1"/>
+    <col min="8970" max="8970" width="12.1640625" style="35" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" style="35" customWidth="1"/>
+    <col min="8972" max="8977" width="15.71875" style="35" customWidth="1"/>
+    <col min="8978" max="8978" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8979" max="8979" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8980" max="8980" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="8981" max="9216" width="9.1640625" style="35"/>
+    <col min="9217" max="9217" width="21.71875" style="35" customWidth="1"/>
+    <col min="9218" max="9218" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9225" width="11.1640625" style="35" customWidth="1"/>
+    <col min="9226" max="9226" width="12.1640625" style="35" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" style="35" customWidth="1"/>
+    <col min="9228" max="9233" width="15.71875" style="35" customWidth="1"/>
+    <col min="9234" max="9234" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9235" max="9235" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9236" max="9236" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="9237" max="9472" width="9.1640625" style="35"/>
+    <col min="9473" max="9473" width="21.71875" style="35" customWidth="1"/>
+    <col min="9474" max="9474" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9481" width="11.1640625" style="35" customWidth="1"/>
+    <col min="9482" max="9482" width="12.1640625" style="35" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" style="35" customWidth="1"/>
+    <col min="9484" max="9489" width="15.71875" style="35" customWidth="1"/>
+    <col min="9490" max="9490" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9491" max="9491" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9492" max="9492" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="9493" max="9728" width="9.1640625" style="35"/>
+    <col min="9729" max="9729" width="21.71875" style="35" customWidth="1"/>
+    <col min="9730" max="9730" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9737" width="11.1640625" style="35" customWidth="1"/>
+    <col min="9738" max="9738" width="12.1640625" style="35" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" style="35" customWidth="1"/>
+    <col min="9740" max="9745" width="15.71875" style="35" customWidth="1"/>
+    <col min="9746" max="9746" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9747" max="9747" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9748" max="9748" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="9749" max="9984" width="9.1640625" style="35"/>
+    <col min="9985" max="9985" width="21.71875" style="35" customWidth="1"/>
+    <col min="9986" max="9986" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9993" width="11.1640625" style="35" customWidth="1"/>
+    <col min="9994" max="9994" width="12.1640625" style="35" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" style="35" customWidth="1"/>
+    <col min="9996" max="10001" width="15.71875" style="35" customWidth="1"/>
+    <col min="10002" max="10002" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10003" max="10003" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10004" max="10004" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="10005" max="10240" width="9.1640625" style="35"/>
+    <col min="10241" max="10241" width="21.71875" style="35" customWidth="1"/>
+    <col min="10242" max="10242" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10249" width="11.1640625" style="35" customWidth="1"/>
+    <col min="10250" max="10250" width="12.1640625" style="35" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" style="35" customWidth="1"/>
+    <col min="10252" max="10257" width="15.71875" style="35" customWidth="1"/>
+    <col min="10258" max="10258" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10259" max="10259" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10260" max="10260" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="10261" max="10496" width="9.1640625" style="35"/>
+    <col min="10497" max="10497" width="21.71875" style="35" customWidth="1"/>
+    <col min="10498" max="10498" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10505" width="11.1640625" style="35" customWidth="1"/>
+    <col min="10506" max="10506" width="12.1640625" style="35" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" style="35" customWidth="1"/>
+    <col min="10508" max="10513" width="15.71875" style="35" customWidth="1"/>
+    <col min="10514" max="10514" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10515" max="10515" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10516" max="10516" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="10517" max="10752" width="9.1640625" style="35"/>
+    <col min="10753" max="10753" width="21.71875" style="35" customWidth="1"/>
+    <col min="10754" max="10754" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10761" width="11.1640625" style="35" customWidth="1"/>
+    <col min="10762" max="10762" width="12.1640625" style="35" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" style="35" customWidth="1"/>
+    <col min="10764" max="10769" width="15.71875" style="35" customWidth="1"/>
+    <col min="10770" max="10770" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10771" max="10771" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10772" max="10772" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="10773" max="11008" width="9.1640625" style="35"/>
+    <col min="11009" max="11009" width="21.71875" style="35" customWidth="1"/>
+    <col min="11010" max="11010" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11017" width="11.1640625" style="35" customWidth="1"/>
+    <col min="11018" max="11018" width="12.1640625" style="35" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" style="35" customWidth="1"/>
+    <col min="11020" max="11025" width="15.71875" style="35" customWidth="1"/>
+    <col min="11026" max="11026" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11027" max="11027" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11028" max="11028" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="11029" max="11264" width="9.1640625" style="35"/>
+    <col min="11265" max="11265" width="21.71875" style="35" customWidth="1"/>
+    <col min="11266" max="11266" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11273" width="11.1640625" style="35" customWidth="1"/>
+    <col min="11274" max="11274" width="12.1640625" style="35" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" style="35" customWidth="1"/>
+    <col min="11276" max="11281" width="15.71875" style="35" customWidth="1"/>
+    <col min="11282" max="11282" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11283" max="11283" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11284" max="11284" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="11285" max="11520" width="9.1640625" style="35"/>
+    <col min="11521" max="11521" width="21.71875" style="35" customWidth="1"/>
+    <col min="11522" max="11522" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11529" width="11.1640625" style="35" customWidth="1"/>
+    <col min="11530" max="11530" width="12.1640625" style="35" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" style="35" customWidth="1"/>
+    <col min="11532" max="11537" width="15.71875" style="35" customWidth="1"/>
+    <col min="11538" max="11538" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11539" max="11539" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11540" max="11540" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="11541" max="11776" width="9.1640625" style="35"/>
+    <col min="11777" max="11777" width="21.71875" style="35" customWidth="1"/>
+    <col min="11778" max="11778" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11785" width="11.1640625" style="35" customWidth="1"/>
+    <col min="11786" max="11786" width="12.1640625" style="35" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" style="35" customWidth="1"/>
+    <col min="11788" max="11793" width="15.71875" style="35" customWidth="1"/>
+    <col min="11794" max="11794" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11795" max="11795" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11796" max="11796" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="11797" max="12032" width="9.1640625" style="35"/>
+    <col min="12033" max="12033" width="21.71875" style="35" customWidth="1"/>
+    <col min="12034" max="12034" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12041" width="11.1640625" style="35" customWidth="1"/>
+    <col min="12042" max="12042" width="12.1640625" style="35" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" style="35" customWidth="1"/>
+    <col min="12044" max="12049" width="15.71875" style="35" customWidth="1"/>
+    <col min="12050" max="12050" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12051" max="12051" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12052" max="12052" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="12053" max="12288" width="9.1640625" style="35"/>
+    <col min="12289" max="12289" width="21.71875" style="35" customWidth="1"/>
+    <col min="12290" max="12290" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12297" width="11.1640625" style="35" customWidth="1"/>
+    <col min="12298" max="12298" width="12.1640625" style="35" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" style="35" customWidth="1"/>
+    <col min="12300" max="12305" width="15.71875" style="35" customWidth="1"/>
+    <col min="12306" max="12306" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12307" max="12307" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12308" max="12308" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="12309" max="12544" width="9.1640625" style="35"/>
+    <col min="12545" max="12545" width="21.71875" style="35" customWidth="1"/>
+    <col min="12546" max="12546" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12553" width="11.1640625" style="35" customWidth="1"/>
+    <col min="12554" max="12554" width="12.1640625" style="35" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" style="35" customWidth="1"/>
+    <col min="12556" max="12561" width="15.71875" style="35" customWidth="1"/>
+    <col min="12562" max="12562" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12563" max="12563" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12564" max="12564" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="12565" max="12800" width="9.1640625" style="35"/>
+    <col min="12801" max="12801" width="21.71875" style="35" customWidth="1"/>
+    <col min="12802" max="12802" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12809" width="11.1640625" style="35" customWidth="1"/>
+    <col min="12810" max="12810" width="12.1640625" style="35" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" style="35" customWidth="1"/>
+    <col min="12812" max="12817" width="15.71875" style="35" customWidth="1"/>
+    <col min="12818" max="12818" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12819" max="12819" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12820" max="12820" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="12821" max="13056" width="9.1640625" style="35"/>
+    <col min="13057" max="13057" width="21.71875" style="35" customWidth="1"/>
+    <col min="13058" max="13058" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13065" width="11.1640625" style="35" customWidth="1"/>
+    <col min="13066" max="13066" width="12.1640625" style="35" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" style="35" customWidth="1"/>
+    <col min="13068" max="13073" width="15.71875" style="35" customWidth="1"/>
+    <col min="13074" max="13074" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13075" max="13075" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13076" max="13076" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="13077" max="13312" width="9.1640625" style="35"/>
+    <col min="13313" max="13313" width="21.71875" style="35" customWidth="1"/>
+    <col min="13314" max="13314" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13321" width="11.1640625" style="35" customWidth="1"/>
+    <col min="13322" max="13322" width="12.1640625" style="35" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" style="35" customWidth="1"/>
+    <col min="13324" max="13329" width="15.71875" style="35" customWidth="1"/>
+    <col min="13330" max="13330" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13331" max="13331" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13332" max="13332" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="13333" max="13568" width="9.1640625" style="35"/>
+    <col min="13569" max="13569" width="21.71875" style="35" customWidth="1"/>
+    <col min="13570" max="13570" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13577" width="11.1640625" style="35" customWidth="1"/>
+    <col min="13578" max="13578" width="12.1640625" style="35" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" style="35" customWidth="1"/>
+    <col min="13580" max="13585" width="15.71875" style="35" customWidth="1"/>
+    <col min="13586" max="13586" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13587" max="13587" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13588" max="13588" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="13589" max="13824" width="9.1640625" style="35"/>
+    <col min="13825" max="13825" width="21.71875" style="35" customWidth="1"/>
+    <col min="13826" max="13826" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13833" width="11.1640625" style="35" customWidth="1"/>
+    <col min="13834" max="13834" width="12.1640625" style="35" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" style="35" customWidth="1"/>
+    <col min="13836" max="13841" width="15.71875" style="35" customWidth="1"/>
+    <col min="13842" max="13842" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13843" max="13843" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13844" max="13844" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="13845" max="14080" width="9.1640625" style="35"/>
+    <col min="14081" max="14081" width="21.71875" style="35" customWidth="1"/>
+    <col min="14082" max="14082" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14089" width="11.1640625" style="35" customWidth="1"/>
+    <col min="14090" max="14090" width="12.1640625" style="35" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" style="35" customWidth="1"/>
+    <col min="14092" max="14097" width="15.71875" style="35" customWidth="1"/>
+    <col min="14098" max="14098" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14099" max="14099" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14100" max="14100" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="14101" max="14336" width="9.1640625" style="35"/>
+    <col min="14337" max="14337" width="21.71875" style="35" customWidth="1"/>
+    <col min="14338" max="14338" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14345" width="11.1640625" style="35" customWidth="1"/>
+    <col min="14346" max="14346" width="12.1640625" style="35" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" style="35" customWidth="1"/>
+    <col min="14348" max="14353" width="15.71875" style="35" customWidth="1"/>
+    <col min="14354" max="14354" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14355" max="14355" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14356" max="14356" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="14357" max="14592" width="9.1640625" style="35"/>
+    <col min="14593" max="14593" width="21.71875" style="35" customWidth="1"/>
+    <col min="14594" max="14594" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14601" width="11.1640625" style="35" customWidth="1"/>
+    <col min="14602" max="14602" width="12.1640625" style="35" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" style="35" customWidth="1"/>
+    <col min="14604" max="14609" width="15.71875" style="35" customWidth="1"/>
+    <col min="14610" max="14610" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14611" max="14611" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14612" max="14612" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="14613" max="14848" width="9.1640625" style="35"/>
+    <col min="14849" max="14849" width="21.71875" style="35" customWidth="1"/>
+    <col min="14850" max="14850" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14857" width="11.1640625" style="35" customWidth="1"/>
+    <col min="14858" max="14858" width="12.1640625" style="35" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" style="35" customWidth="1"/>
+    <col min="14860" max="14865" width="15.71875" style="35" customWidth="1"/>
+    <col min="14866" max="14866" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14867" max="14867" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14868" max="14868" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="14869" max="15104" width="9.1640625" style="35"/>
+    <col min="15105" max="15105" width="21.71875" style="35" customWidth="1"/>
+    <col min="15106" max="15106" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15113" width="11.1640625" style="35" customWidth="1"/>
+    <col min="15114" max="15114" width="12.1640625" style="35" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" style="35" customWidth="1"/>
+    <col min="15116" max="15121" width="15.71875" style="35" customWidth="1"/>
+    <col min="15122" max="15122" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15123" max="15123" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15124" max="15124" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="15125" max="15360" width="9.1640625" style="35"/>
+    <col min="15361" max="15361" width="21.71875" style="35" customWidth="1"/>
+    <col min="15362" max="15362" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15369" width="11.1640625" style="35" customWidth="1"/>
+    <col min="15370" max="15370" width="12.1640625" style="35" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" style="35" customWidth="1"/>
+    <col min="15372" max="15377" width="15.71875" style="35" customWidth="1"/>
+    <col min="15378" max="15378" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15379" max="15379" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15380" max="15380" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="15381" max="15616" width="9.1640625" style="35"/>
+    <col min="15617" max="15617" width="21.71875" style="35" customWidth="1"/>
+    <col min="15618" max="15618" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15625" width="11.1640625" style="35" customWidth="1"/>
+    <col min="15626" max="15626" width="12.1640625" style="35" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" style="35" customWidth="1"/>
+    <col min="15628" max="15633" width="15.71875" style="35" customWidth="1"/>
+    <col min="15634" max="15634" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15635" max="15635" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15636" max="15636" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="15637" max="15872" width="9.1640625" style="35"/>
+    <col min="15873" max="15873" width="21.71875" style="35" customWidth="1"/>
+    <col min="15874" max="15874" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15881" width="11.1640625" style="35" customWidth="1"/>
+    <col min="15882" max="15882" width="12.1640625" style="35" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" style="35" customWidth="1"/>
+    <col min="15884" max="15889" width="15.71875" style="35" customWidth="1"/>
+    <col min="15890" max="15890" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15891" max="15891" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15892" max="15892" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="15893" max="16128" width="9.1640625" style="35"/>
+    <col min="16129" max="16129" width="21.71875" style="35" customWidth="1"/>
+    <col min="16130" max="16130" width="14.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="14.27734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="14.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16137" width="11.1640625" style="35" customWidth="1"/>
+    <col min="16138" max="16138" width="12.1640625" style="35" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" style="35" customWidth="1"/>
+    <col min="16140" max="16145" width="15.71875" style="35" customWidth="1"/>
+    <col min="16146" max="16146" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="16147" max="16147" width="16.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="16148" max="16148" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="16149" max="16384" width="9.1640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="79"/>
+      <c r="B2" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="68" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72">
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="81"/>
+      <c r="B4" s="36">
         <v>2016</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="36">
         <v>2017</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="36">
         <v>2018</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="36">
         <v>2016</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="36">
         <v>2017</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="36">
         <v>2018</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="36">
         <v>2016</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="36">
         <v>2017</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="37">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="39">
         <v>18715040</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="39">
         <v>19519424</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="39">
         <v>20580223</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="40">
         <v>7851</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="40">
         <v>34030</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="40">
         <v>86144</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="41">
         <v>0</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="41">
         <v>0.2</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="42">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="40">
         <v>1010689</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="40">
         <v>1042753</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="40">
         <v>1088379</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="40">
         <v>601</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="40">
         <v>1492</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="40">
         <v>3136</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="41">
         <v>0.1</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="41">
         <v>0.1</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="42">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="45">
         <v>263696</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="45">
         <v>268311</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="45">
         <v>275727</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="45">
         <v>718</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="45">
         <v>2775</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="45">
         <v>1547</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="46">
         <v>0.3</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="46">
         <v>1</v>
       </c>
-      <c r="J7" s="83">
+      <c r="J7" s="47">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="45">
         <v>59754</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="45">
         <v>62040</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="45">
         <v>64856</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="45">
         <v>150</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="45">
         <v>320</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="45">
         <v>505</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="46">
         <v>0.3</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="46">
         <v>0.5</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="47">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="45">
         <v>519408</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="45">
         <v>540786</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="45">
         <v>569488</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="45">
         <v>-333</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="45">
         <v>-163</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="45">
         <v>2233</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="46">
         <v>-0.1</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="46">
         <v>0</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="47">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="45">
         <v>78478</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="45">
         <v>80900</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="45">
         <v>84464</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="45">
         <v>76</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="45">
         <v>-279</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="45">
         <v>-248</v>
       </c>
-      <c r="H10" s="82">
+      <c r="H10" s="46">
         <v>0.1</v>
       </c>
-      <c r="I10" s="82">
+      <c r="I10" s="46">
         <v>-0.3</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="47">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="45">
         <v>57694</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="45">
         <v>58506</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="45">
         <v>60588</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="45">
         <v>-33</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="45">
         <v>-748</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="45">
         <v>-433</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="46">
         <v>-0.1</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="46">
         <v>-1.3</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="47">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+    <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="45">
         <v>31659</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="45">
         <v>32210</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="45">
         <v>33256</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="45">
         <v>24</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="45">
         <v>-414</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="45">
         <v>-469</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="46">
         <v>0.1</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="46">
         <v>-1.3</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="47">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="40">
         <v>3432411</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="40">
         <v>3542824</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="40">
         <v>3700763</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="40">
         <v>999</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="40">
         <v>-12772</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="40">
         <v>-17151</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="41">
         <v>0</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="41">
         <v>-0.4</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="42">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="45">
         <v>69550</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="45">
         <v>70775</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="45">
         <v>73481</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="45">
         <v>-830</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="45">
         <v>-1392</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="45">
         <v>-1492</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="46">
         <v>-1.2</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="46">
         <v>-1.9</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="47">
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="45">
         <v>129826</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="45">
         <v>134043</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="45">
         <v>140661</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="45">
         <v>9</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="45">
         <v>-859</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="45">
         <v>381</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="46">
         <v>0</v>
       </c>
-      <c r="I15" s="82">
+      <c r="I15" s="46">
         <v>-0.6</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="45">
         <v>384889</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="45">
         <v>394259</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="45">
         <v>412584</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="45">
         <v>733</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="45">
         <v>-4157</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="45">
         <v>-337</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="46">
         <v>0.2</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="46">
         <v>-1</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="47">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="45">
         <v>582428</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="45">
         <v>595324</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="45">
         <v>622003</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="45">
         <v>1157</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="45">
         <v>-3990</v>
       </c>
-      <c r="G17" s="81">
+      <c r="G17" s="45">
         <v>-2849</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="46">
         <v>0.2</v>
       </c>
-      <c r="I17" s="82">
+      <c r="I17" s="46">
         <v>-0.7</v>
       </c>
-      <c r="J17" s="83">
+      <c r="J17" s="47">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="45">
         <v>1539555</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="45">
         <v>1604134</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="45">
         <v>1668866</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="45">
         <v>-1969</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="45">
         <v>5677</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="45">
         <v>-7484</v>
       </c>
-      <c r="H18" s="82">
+      <c r="H18" s="46">
         <v>-0.1</v>
       </c>
-      <c r="I18" s="82">
+      <c r="I18" s="46">
         <v>0.4</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="47">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80" t="s">
+    <row r="19" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="45">
         <v>726164</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="45">
         <v>744290</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="45">
         <v>783168</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="45">
         <v>1898</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="45">
         <v>-8050</v>
       </c>
-      <c r="G19" s="81">
+      <c r="G19" s="45">
         <v>-5370</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="46">
         <v>0.3</v>
       </c>
-      <c r="I19" s="82">
+      <c r="I19" s="46">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="J19" s="83">
+      <c r="J19" s="47">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="s">
+    <row r="20" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="40">
         <v>2572583</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="40">
         <v>2650798</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="40">
         <v>2771406</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="40">
         <v>5235</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="40">
         <v>667</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="40">
         <v>-1060</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="41">
         <v>0.2</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="41">
         <v>0</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="45">
         <v>806316</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="45">
         <v>826818</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="45">
         <v>865310</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="45">
         <v>881</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="45">
         <v>1007</v>
       </c>
-      <c r="G21" s="81">
+      <c r="G21" s="45">
         <v>723</v>
       </c>
-      <c r="H21" s="82">
+      <c r="H21" s="46">
         <v>0.1</v>
       </c>
-      <c r="I21" s="82">
+      <c r="I21" s="46">
         <v>0.1</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="47">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="45">
         <v>338126</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="45">
         <v>351106</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="45">
         <v>366801</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="45">
         <v>-101</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="45">
         <v>34</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="45">
         <v>94</v>
       </c>
-      <c r="H22" s="82">
+      <c r="H22" s="46">
         <v>0</v>
       </c>
-      <c r="I22" s="82">
+      <c r="I22" s="46">
         <v>0</v>
       </c>
-      <c r="J22" s="83">
+      <c r="J22" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="81">
+      <c r="B23" s="45">
         <v>491774</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="45">
         <v>505561</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="45">
         <v>527096</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="45">
         <v>1591</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="45">
         <v>-284</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="45">
         <v>-913</v>
       </c>
-      <c r="H23" s="82">
+      <c r="H23" s="46">
         <v>0.3</v>
       </c>
-      <c r="I23" s="82">
+      <c r="I23" s="46">
         <v>-0.1</v>
       </c>
-      <c r="J23" s="83">
+      <c r="J23" s="47">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="45">
         <v>622835</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="45">
         <v>645326</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="45">
         <v>675905</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="45">
         <v>1472</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="45">
         <v>-494</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="45">
         <v>-287</v>
       </c>
-      <c r="H24" s="82">
+      <c r="H24" s="46">
         <v>0.2</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I24" s="46">
         <v>-0.1</v>
       </c>
-      <c r="J24" s="83">
+      <c r="J24" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="80" t="s">
+    <row r="25" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="45">
         <v>313532</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="45">
         <v>321988</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="45">
         <v>336294</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="45">
         <v>1392</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="45">
         <v>403</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="45">
         <v>-677</v>
       </c>
-      <c r="H25" s="82">
+      <c r="H25" s="46">
         <v>0.4</v>
       </c>
-      <c r="I25" s="82">
+      <c r="I25" s="46">
         <v>0.1</v>
       </c>
-      <c r="J25" s="83">
+      <c r="J25" s="47">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+    <row r="26" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="40">
         <v>1188720</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="40">
         <v>1222157</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="40">
         <v>1277868</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="40">
         <v>2689</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="40">
         <v>3010</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="40">
         <v>5348</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="41">
         <v>0.2</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="41">
         <v>0.2</v>
       </c>
-      <c r="J26" s="78">
+      <c r="J26" s="42">
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="80" t="s">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="45">
         <v>179547</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="45">
         <v>181846</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="45">
         <v>189702</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="45">
         <v>-804</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="45">
         <v>-1132</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="45">
         <v>-449</v>
       </c>
-      <c r="H27" s="82">
+      <c r="H27" s="46">
         <v>-0.4</v>
       </c>
-      <c r="I27" s="82">
+      <c r="I27" s="46">
         <v>-0.6</v>
       </c>
-      <c r="J27" s="83">
+      <c r="J27" s="47">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="45">
         <v>156857</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="45">
         <v>161220</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="45">
         <v>168318</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="45">
         <v>1175</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="45">
         <v>1136</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="45">
         <v>1276</v>
       </c>
-      <c r="H28" s="82">
+      <c r="H28" s="46">
         <v>0.8</v>
       </c>
-      <c r="I28" s="82">
+      <c r="I28" s="46">
         <v>0.7</v>
       </c>
-      <c r="J28" s="83">
+      <c r="J28" s="47">
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="80" t="s">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="45">
         <v>339100</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="45">
         <v>351417</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="45">
         <v>368852</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="45">
         <v>462</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="45">
         <v>-850</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="45">
         <v>535</v>
       </c>
-      <c r="H29" s="82">
+      <c r="H29" s="46">
         <v>0.1</v>
       </c>
-      <c r="I29" s="82">
+      <c r="I29" s="46">
         <v>-0.2</v>
       </c>
-      <c r="J29" s="83">
+      <c r="J29" s="47">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="45">
         <v>297583</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="45">
         <v>304946</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="45">
         <v>318921</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="45">
         <v>1512</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="45">
         <v>896</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="45">
         <v>1172</v>
       </c>
-      <c r="H30" s="82">
+      <c r="H30" s="46">
         <v>0.5</v>
       </c>
-      <c r="I30" s="82">
+      <c r="I30" s="46">
         <v>0.3</v>
       </c>
-      <c r="J30" s="83">
+      <c r="J30" s="47">
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="80" t="s">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="45">
         <v>116194</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="45">
         <v>120517</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="45">
         <v>123978</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="45">
         <v>138</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="45">
         <v>1972</v>
       </c>
-      <c r="G31" s="81">
+      <c r="G31" s="45">
         <v>1012</v>
       </c>
-      <c r="H31" s="82">
+      <c r="H31" s="46">
         <v>0.1</v>
       </c>
-      <c r="I31" s="82">
+      <c r="I31" s="46">
         <v>1.7</v>
       </c>
-      <c r="J31" s="83">
+      <c r="J31" s="47">
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="80" t="s">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="81">
+      <c r="B32" s="45">
         <v>50833</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="45">
         <v>52472</v>
       </c>
-      <c r="D32" s="81">
+      <c r="D32" s="45">
         <v>56082</v>
       </c>
-      <c r="E32" s="81">
+      <c r="E32" s="45">
         <v>61</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="45">
         <v>860</v>
       </c>
-      <c r="G32" s="81">
+      <c r="G32" s="45">
         <v>1368</v>
       </c>
-      <c r="H32" s="82">
+      <c r="H32" s="46">
         <v>0.1</v>
       </c>
-      <c r="I32" s="82">
+      <c r="I32" s="46">
         <v>1.7</v>
       </c>
-      <c r="J32" s="83">
+      <c r="J32" s="47">
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80" t="s">
+    <row r="33" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="81">
+      <c r="B33" s="45">
         <v>48606</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="45">
         <v>49739</v>
       </c>
-      <c r="D33" s="81">
+      <c r="D33" s="45">
         <v>52015</v>
       </c>
-      <c r="E33" s="81">
+      <c r="E33" s="45">
         <v>145</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="45">
         <v>129</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="45">
         <v>434</v>
       </c>
-      <c r="H33" s="82">
+      <c r="H33" s="46">
         <v>0.3</v>
       </c>
-      <c r="I33" s="82">
+      <c r="I33" s="46">
         <v>0.3</v>
       </c>
-      <c r="J33" s="83">
+      <c r="J33" s="47">
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+    <row r="34" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="40">
         <v>3962904</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="40">
         <v>4126028</v>
       </c>
-      <c r="D34" s="76">
+      <c r="D34" s="40">
         <v>4333809</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="40">
         <v>3763</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="40">
         <v>8888</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="40">
         <v>11859</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="41">
         <v>0.1</v>
       </c>
-      <c r="I34" s="77">
+      <c r="I34" s="41">
         <v>0.2</v>
       </c>
-      <c r="J34" s="78">
+      <c r="J34" s="42">
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="81">
+      <c r="B35" s="45">
         <v>203830</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="45">
         <v>210364</v>
       </c>
-      <c r="D35" s="81">
+      <c r="D35" s="45">
         <v>221736</v>
       </c>
-      <c r="E35" s="81">
+      <c r="E35" s="45">
         <v>431</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="45">
         <v>-1302</v>
       </c>
-      <c r="G35" s="81">
+      <c r="G35" s="45">
         <v>609</v>
       </c>
-      <c r="H35" s="82">
+      <c r="H35" s="46">
         <v>0.2</v>
       </c>
-      <c r="I35" s="82">
+      <c r="I35" s="46">
         <v>-0.6</v>
       </c>
-      <c r="J35" s="83">
+      <c r="J35" s="47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="80" t="s">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="81">
+      <c r="B36" s="45">
         <v>120375</v>
       </c>
-      <c r="C36" s="81">
+      <c r="C36" s="45">
         <v>123383</v>
       </c>
-      <c r="D36" s="81">
+      <c r="D36" s="45">
         <v>128419</v>
       </c>
-      <c r="E36" s="81">
+      <c r="E36" s="45">
         <v>285</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="45">
         <v>-331</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36" s="45">
         <v>337</v>
       </c>
-      <c r="H36" s="82">
+      <c r="H36" s="46">
         <v>0.2</v>
       </c>
-      <c r="I36" s="82">
+      <c r="I36" s="46">
         <v>-0.3</v>
       </c>
-      <c r="J36" s="83">
+      <c r="J36" s="47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="81">
+      <c r="B37" s="45">
         <v>938774</v>
       </c>
-      <c r="C37" s="81">
+      <c r="C37" s="45">
         <v>985665</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="45">
         <v>1039236</v>
       </c>
-      <c r="E37" s="81">
+      <c r="E37" s="45">
         <v>404</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="45">
         <v>6201</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37" s="45">
         <v>2913</v>
       </c>
-      <c r="H37" s="82">
+      <c r="H37" s="46">
         <v>0</v>
       </c>
-      <c r="I37" s="82">
+      <c r="I37" s="46">
         <v>0.6</v>
       </c>
-      <c r="J37" s="83">
+      <c r="J37" s="47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="80" t="s">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="81">
+      <c r="B38" s="45">
         <v>539525</v>
       </c>
-      <c r="C38" s="81">
+      <c r="C38" s="45">
         <v>566474</v>
       </c>
-      <c r="D38" s="81">
+      <c r="D38" s="45">
         <v>592153</v>
       </c>
-      <c r="E38" s="81">
+      <c r="E38" s="45">
         <v>1288</v>
       </c>
-      <c r="F38" s="81">
+      <c r="F38" s="45">
         <v>4353</v>
       </c>
-      <c r="G38" s="81">
+      <c r="G38" s="45">
         <v>3982</v>
       </c>
-      <c r="H38" s="82">
+      <c r="H38" s="46">
         <v>0.2</v>
       </c>
-      <c r="I38" s="82">
+      <c r="I38" s="46">
         <v>0.8</v>
       </c>
-      <c r="J38" s="83">
+      <c r="J38" s="47">
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="80" t="s">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="81">
+      <c r="B39" s="45">
         <v>195342</v>
       </c>
-      <c r="C39" s="81">
+      <c r="C39" s="45">
         <v>200715</v>
       </c>
-      <c r="D39" s="81">
+      <c r="D39" s="45">
         <v>208088</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="45">
         <v>262</v>
       </c>
-      <c r="F39" s="81">
+      <c r="F39" s="45">
         <v>-275</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="45">
         <v>-252</v>
       </c>
-      <c r="H39" s="82">
+      <c r="H39" s="46">
         <v>0.1</v>
       </c>
-      <c r="I39" s="82">
+      <c r="I39" s="46">
         <v>-0.1</v>
       </c>
-      <c r="J39" s="83">
+      <c r="J39" s="47">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="80" t="s">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="81">
+      <c r="B40" s="45">
         <v>227227</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="45">
         <v>239204</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="45">
         <v>257288</v>
       </c>
-      <c r="E40" s="81">
+      <c r="E40" s="45">
         <v>-860</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="45">
         <v>1066</v>
       </c>
-      <c r="G40" s="81">
+      <c r="G40" s="45">
         <v>5171</v>
       </c>
-      <c r="H40" s="82">
+      <c r="H40" s="46">
         <v>-0.4</v>
       </c>
-      <c r="I40" s="82">
+      <c r="I40" s="46">
         <v>0.4</v>
       </c>
-      <c r="J40" s="83">
+      <c r="J40" s="47">
         <v>2.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="80" t="s">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="81">
+      <c r="B41" s="45">
         <v>107097</v>
       </c>
-      <c r="C41" s="81">
+      <c r="C41" s="45">
         <v>110223</v>
       </c>
-      <c r="D41" s="81">
+      <c r="D41" s="45">
         <v>114834</v>
       </c>
-      <c r="E41" s="81">
+      <c r="E41" s="45">
         <v>206</v>
       </c>
-      <c r="F41" s="81">
+      <c r="F41" s="45">
         <v>322</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41" s="45">
         <v>727</v>
       </c>
-      <c r="H41" s="82">
+      <c r="H41" s="46">
         <v>0.2</v>
       </c>
-      <c r="I41" s="82">
+      <c r="I41" s="46">
         <v>0.3</v>
       </c>
-      <c r="J41" s="83">
+      <c r="J41" s="47">
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="80" t="s">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="81">
+      <c r="B42" s="45">
         <v>519122</v>
       </c>
-      <c r="C42" s="81">
+      <c r="C42" s="45">
         <v>538402</v>
       </c>
-      <c r="D42" s="81">
+      <c r="D42" s="45">
         <v>563691</v>
       </c>
-      <c r="E42" s="81">
+      <c r="E42" s="45">
         <v>875</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42" s="45">
         <v>513</v>
       </c>
-      <c r="G42" s="81">
+      <c r="G42" s="45">
         <v>-2110</v>
       </c>
-      <c r="H42" s="82">
+      <c r="H42" s="46">
         <v>0.2</v>
       </c>
-      <c r="I42" s="82">
+      <c r="I42" s="46">
         <v>0.1</v>
       </c>
-      <c r="J42" s="83">
+      <c r="J42" s="47">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="80" t="s">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="81">
+      <c r="B43" s="45">
         <v>212987</v>
       </c>
-      <c r="C43" s="81">
+      <c r="C43" s="45">
         <v>223111</v>
       </c>
-      <c r="D43" s="81">
+      <c r="D43" s="45">
         <v>233930</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="45">
         <v>313</v>
       </c>
-      <c r="F43" s="81">
+      <c r="F43" s="45">
         <v>1215</v>
       </c>
-      <c r="G43" s="81">
+      <c r="G43" s="45">
         <v>3576</v>
       </c>
-      <c r="H43" s="82">
+      <c r="H43" s="46">
         <v>0.1</v>
       </c>
-      <c r="I43" s="82">
+      <c r="I43" s="46">
         <v>0.5</v>
       </c>
-      <c r="J43" s="83">
+      <c r="J43" s="47">
         <v>1.6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="80" t="s">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="45">
         <v>335026</v>
       </c>
-      <c r="C44" s="81">
+      <c r="C44" s="45">
         <v>345950</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="45">
         <v>364105</v>
       </c>
-      <c r="E44" s="81">
+      <c r="E44" s="45">
         <v>641</v>
       </c>
-      <c r="F44" s="81">
+      <c r="F44" s="45">
         <v>-1885</v>
       </c>
-      <c r="G44" s="81">
+      <c r="G44" s="45">
         <v>-1497</v>
       </c>
-      <c r="H44" s="82">
+      <c r="H44" s="46">
         <v>0.2</v>
       </c>
-      <c r="I44" s="82">
+      <c r="I44" s="46">
         <v>-0.5</v>
       </c>
-      <c r="J44" s="83">
+      <c r="J44" s="47">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="80" t="s">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="81">
+      <c r="B45" s="45">
         <v>493878</v>
       </c>
-      <c r="C45" s="81">
+      <c r="C45" s="45">
         <v>509373</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="45">
         <v>532892</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="45">
         <v>12</v>
       </c>
-      <c r="F45" s="81">
+      <c r="F45" s="45">
         <v>-1052</v>
       </c>
-      <c r="G45" s="81">
+      <c r="G45" s="45">
         <v>-1556</v>
       </c>
-      <c r="H45" s="82">
+      <c r="H45" s="46">
         <v>0</v>
       </c>
-      <c r="I45" s="82">
+      <c r="I45" s="46">
         <v>-0.2</v>
       </c>
-      <c r="J45" s="83">
+      <c r="J45" s="47">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="80" t="s">
+    <row r="46" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="81">
+      <c r="B46" s="45">
         <v>69721</v>
       </c>
-      <c r="C46" s="81">
+      <c r="C46" s="45">
         <v>73163</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="45">
         <v>77438</v>
       </c>
-      <c r="E46" s="81">
+      <c r="E46" s="45">
         <v>-93</v>
       </c>
-      <c r="F46" s="81">
+      <c r="F46" s="45">
         <v>64</v>
       </c>
-      <c r="G46" s="81">
+      <c r="G46" s="45">
         <v>-40</v>
       </c>
-      <c r="H46" s="82">
+      <c r="H46" s="46">
         <v>-0.1</v>
       </c>
-      <c r="I46" s="82">
+      <c r="I46" s="46">
         <v>0.1</v>
       </c>
-      <c r="J46" s="83">
+      <c r="J46" s="47">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="74" t="s">
+    <row r="47" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="40">
         <v>2146680</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="40">
         <v>2275763</v>
       </c>
-      <c r="D47" s="76">
+      <c r="D47" s="40">
         <v>2453659</v>
       </c>
-      <c r="E47" s="76">
+      <c r="E47" s="40">
         <v>1373</v>
       </c>
-      <c r="F47" s="76">
+      <c r="F47" s="40">
         <v>13143</v>
       </c>
-      <c r="G47" s="76">
+      <c r="G47" s="40">
         <v>31661</v>
       </c>
-      <c r="H47" s="77">
+      <c r="H47" s="41">
         <v>0.1</v>
       </c>
-      <c r="I47" s="77">
+      <c r="I47" s="41">
         <v>0.6</v>
       </c>
-      <c r="J47" s="78">
+      <c r="J47" s="42">
         <v>1.3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="80" t="s">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="81">
+      <c r="B48" s="45">
         <v>311091</v>
       </c>
-      <c r="C48" s="81">
+      <c r="C48" s="45">
         <v>327496</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="45">
         <v>348297</v>
       </c>
-      <c r="E48" s="81">
+      <c r="E48" s="45">
         <v>-306</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48" s="45">
         <v>957</v>
       </c>
-      <c r="G48" s="81">
+      <c r="G48" s="45">
         <v>1505</v>
       </c>
-      <c r="H48" s="82">
+      <c r="H48" s="46">
         <v>-0.1</v>
       </c>
-      <c r="I48" s="82">
+      <c r="I48" s="46">
         <v>0.3</v>
       </c>
-      <c r="J48" s="83">
+      <c r="J48" s="47">
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="80" t="s">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="81">
+      <c r="B49" s="45">
         <v>91044</v>
       </c>
-      <c r="C49" s="81">
+      <c r="C49" s="45">
         <v>94267</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="45">
         <v>100297</v>
       </c>
-      <c r="E49" s="81">
+      <c r="E49" s="45">
         <v>40</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="45">
         <v>29</v>
       </c>
-      <c r="G49" s="81">
+      <c r="G49" s="45">
         <v>862</v>
       </c>
-      <c r="H49" s="82">
+      <c r="H49" s="46">
         <v>0</v>
       </c>
-      <c r="I49" s="82">
+      <c r="I49" s="46">
         <v>0</v>
       </c>
-      <c r="J49" s="83">
+      <c r="J49" s="47">
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="80" t="s">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="81">
+      <c r="B50" s="45">
         <v>178913</v>
       </c>
-      <c r="C50" s="81">
+      <c r="C50" s="45">
         <v>188368</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="45">
         <v>202554</v>
       </c>
-      <c r="E50" s="81">
+      <c r="E50" s="45">
         <v>403</v>
       </c>
-      <c r="F50" s="81">
+      <c r="F50" s="45">
         <v>1020</v>
       </c>
-      <c r="G50" s="81">
+      <c r="G50" s="45">
         <v>2578</v>
       </c>
-      <c r="H50" s="82">
+      <c r="H50" s="46">
         <v>0.2</v>
       </c>
-      <c r="I50" s="82">
+      <c r="I50" s="46">
         <v>0.5</v>
       </c>
-      <c r="J50" s="83">
+      <c r="J50" s="47">
         <v>1.3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="80" t="s">
+    <row r="51" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="81">
+      <c r="B51" s="45">
         <v>1565632</v>
       </c>
-      <c r="C51" s="81">
+      <c r="C51" s="45">
         <v>1665632</v>
       </c>
-      <c r="D51" s="81">
+      <c r="D51" s="45">
         <v>1802511</v>
       </c>
-      <c r="E51" s="81">
+      <c r="E51" s="45">
         <v>1236</v>
       </c>
-      <c r="F51" s="81">
+      <c r="F51" s="45">
         <v>11137</v>
       </c>
-      <c r="G51" s="81">
+      <c r="G51" s="45">
         <v>26715</v>
       </c>
-      <c r="H51" s="82">
+      <c r="H51" s="46">
         <v>0.1</v>
       </c>
-      <c r="I51" s="82">
+      <c r="I51" s="46">
         <v>0.7</v>
       </c>
-      <c r="J51" s="83">
+      <c r="J51" s="47">
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="74" t="s">
+    <row r="52" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="40">
         <v>637479</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="40">
         <v>674995</v>
       </c>
-      <c r="D52" s="76">
+      <c r="D52" s="40">
         <v>716384</v>
       </c>
-      <c r="E52" s="76">
+      <c r="E52" s="40">
         <v>-288</v>
       </c>
-      <c r="F52" s="76">
+      <c r="F52" s="40">
         <v>4955</v>
       </c>
-      <c r="G52" s="76">
+      <c r="G52" s="40">
         <v>4908</v>
       </c>
-      <c r="H52" s="77">
+      <c r="H52" s="41">
         <v>0</v>
       </c>
-      <c r="I52" s="77">
+      <c r="I52" s="41">
         <v>0.7</v>
       </c>
-      <c r="J52" s="78">
+      <c r="J52" s="42">
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="80" t="s">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="81">
+      <c r="B53" s="45">
         <v>329368</v>
       </c>
-      <c r="C53" s="81">
+      <c r="C53" s="45">
         <v>350004</v>
       </c>
-      <c r="D53" s="81">
+      <c r="D53" s="45">
         <v>371750</v>
       </c>
-      <c r="E53" s="81">
+      <c r="E53" s="45">
         <v>271</v>
       </c>
-      <c r="F53" s="81">
+      <c r="F53" s="45">
         <v>2809</v>
       </c>
-      <c r="G53" s="81">
+      <c r="G53" s="45">
         <v>2954</v>
       </c>
-      <c r="H53" s="82">
+      <c r="H53" s="46">
         <v>0.1</v>
       </c>
-      <c r="I53" s="82">
+      <c r="I53" s="46">
         <v>0.8</v>
       </c>
-      <c r="J53" s="83">
+      <c r="J53" s="47">
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="80" t="s">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="81">
+      <c r="B54" s="45">
         <v>69029</v>
       </c>
-      <c r="C54" s="81">
+      <c r="C54" s="45">
         <v>72723</v>
       </c>
-      <c r="D54" s="81">
+      <c r="D54" s="45">
         <v>77052</v>
       </c>
-      <c r="E54" s="81">
+      <c r="E54" s="45">
         <v>-283</v>
       </c>
-      <c r="F54" s="81">
+      <c r="F54" s="45">
         <v>281</v>
       </c>
-      <c r="G54" s="81">
+      <c r="G54" s="45">
         <v>48</v>
       </c>
-      <c r="H54" s="82">
+      <c r="H54" s="46">
         <v>-0.4</v>
       </c>
-      <c r="I54" s="82">
+      <c r="I54" s="46">
         <v>0.4</v>
       </c>
-      <c r="J54" s="83">
+      <c r="J54" s="47">
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="80" t="s">
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="81">
+      <c r="B55" s="45">
         <v>45458</v>
       </c>
-      <c r="C55" s="81">
+      <c r="C55" s="45">
         <v>47559</v>
       </c>
-      <c r="D55" s="81">
+      <c r="D55" s="45">
         <v>50327</v>
       </c>
-      <c r="E55" s="81">
+      <c r="E55" s="45">
         <v>-92</v>
       </c>
-      <c r="F55" s="81">
+      <c r="F55" s="45">
         <v>486</v>
       </c>
-      <c r="G55" s="81">
+      <c r="G55" s="45">
         <v>1357</v>
       </c>
-      <c r="H55" s="82">
+      <c r="H55" s="46">
         <v>-0.2</v>
       </c>
-      <c r="I55" s="82">
+      <c r="I55" s="46">
         <v>1</v>
       </c>
-      <c r="J55" s="83">
+      <c r="J55" s="47">
         <v>2.8</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="80" t="s">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="81">
+      <c r="B56" s="45">
         <v>157883</v>
       </c>
-      <c r="C56" s="81">
+      <c r="C56" s="45">
         <v>167255</v>
       </c>
-      <c r="D56" s="81">
+      <c r="D56" s="45">
         <v>178138</v>
       </c>
-      <c r="E56" s="81">
+      <c r="E56" s="45">
         <v>-18</v>
       </c>
-      <c r="F56" s="81">
+      <c r="F56" s="45">
         <v>1552</v>
       </c>
-      <c r="G56" s="81">
+      <c r="G56" s="45">
         <v>801</v>
       </c>
-      <c r="H56" s="82">
+      <c r="H56" s="46">
         <v>0</v>
       </c>
-      <c r="I56" s="82">
+      <c r="I56" s="46">
         <v>0.9</v>
       </c>
-      <c r="J56" s="83">
+      <c r="J56" s="47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="80" t="s">
+    <row r="57" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="81">
+      <c r="B57" s="45">
         <v>35740</v>
       </c>
-      <c r="C57" s="81">
+      <c r="C57" s="45">
         <v>37454</v>
       </c>
-      <c r="D57" s="81">
+      <c r="D57" s="45">
         <v>39118</v>
       </c>
-      <c r="E57" s="81">
+      <c r="E57" s="45">
         <v>-165</v>
       </c>
-      <c r="F57" s="81">
+      <c r="F57" s="45">
         <v>-172</v>
       </c>
-      <c r="G57" s="81">
+      <c r="G57" s="45">
         <v>-253</v>
       </c>
-      <c r="H57" s="82">
+      <c r="H57" s="46">
         <v>-0.5</v>
       </c>
-      <c r="I57" s="82">
+      <c r="I57" s="46">
         <v>-0.5</v>
       </c>
-      <c r="J57" s="83">
+      <c r="J57" s="47">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="74" t="s">
+    <row r="58" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B58" s="76">
+      <c r="B58" s="40">
         <v>3650629</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="40">
         <v>3870624</v>
       </c>
-      <c r="D58" s="76">
+      <c r="D58" s="40">
         <v>4121188</v>
       </c>
-      <c r="E58" s="76">
+      <c r="E58" s="40">
         <v>-6595</v>
       </c>
-      <c r="F58" s="76">
+      <c r="F58" s="40">
         <v>14468</v>
       </c>
-      <c r="G58" s="76">
+      <c r="G58" s="40">
         <v>39395</v>
       </c>
-      <c r="H58" s="77">
+      <c r="H58" s="41">
         <v>-0.2</v>
       </c>
-      <c r="I58" s="77">
+      <c r="I58" s="41">
         <v>0.4</v>
       </c>
-      <c r="J58" s="78">
+      <c r="J58" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="80" t="s">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="81">
+      <c r="B59" s="45">
         <v>49363</v>
       </c>
-      <c r="C59" s="81">
+      <c r="C59" s="45">
         <v>51803</v>
       </c>
-      <c r="D59" s="81">
+      <c r="D59" s="45">
         <v>54734</v>
       </c>
-      <c r="E59" s="81">
+      <c r="E59" s="45">
         <v>-66</v>
       </c>
-      <c r="F59" s="81">
+      <c r="F59" s="45">
         <v>116</v>
       </c>
-      <c r="G59" s="81">
+      <c r="G59" s="45">
         <v>723</v>
       </c>
-      <c r="H59" s="82">
+      <c r="H59" s="46">
         <v>-0.1</v>
       </c>
-      <c r="I59" s="82">
+      <c r="I59" s="46">
         <v>0.2</v>
       </c>
-      <c r="J59" s="83">
+      <c r="J59" s="47">
         <v>1.3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="80" t="s">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="81">
+      <c r="B60" s="45">
         <v>2657798</v>
       </c>
-      <c r="C60" s="81">
+      <c r="C60" s="45">
         <v>2819111</v>
       </c>
-      <c r="D60" s="81">
+      <c r="D60" s="45">
         <v>2997733</v>
       </c>
-      <c r="E60" s="81">
+      <c r="E60" s="45">
         <v>-5598</v>
       </c>
-      <c r="F60" s="81">
+      <c r="F60" s="45">
         <v>9188</v>
       </c>
-      <c r="G60" s="81">
+      <c r="G60" s="45">
         <v>29615</v>
       </c>
-      <c r="H60" s="82">
+      <c r="H60" s="46">
         <v>-0.2</v>
       </c>
-      <c r="I60" s="82">
+      <c r="I60" s="46">
         <v>0.3</v>
       </c>
-      <c r="J60" s="83">
+      <c r="J60" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="80" t="s">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B61" s="81">
+      <c r="B61" s="45">
         <v>85844</v>
       </c>
-      <c r="C61" s="81">
+      <c r="C61" s="45">
         <v>89429</v>
       </c>
-      <c r="D61" s="81">
+      <c r="D61" s="45">
         <v>93798</v>
       </c>
-      <c r="E61" s="81">
+      <c r="E61" s="45">
         <v>-23</v>
       </c>
-      <c r="F61" s="81">
+      <c r="F61" s="45">
         <v>385</v>
       </c>
-      <c r="G61" s="81">
+      <c r="G61" s="45">
         <v>1771</v>
       </c>
-      <c r="H61" s="82">
+      <c r="H61" s="46">
         <v>0</v>
       </c>
-      <c r="I61" s="82">
+      <c r="I61" s="46">
         <v>0.4</v>
       </c>
-      <c r="J61" s="83">
+      <c r="J61" s="47">
         <v>1.9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="80" t="s">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="81">
+      <c r="B62" s="45">
         <v>151215</v>
       </c>
-      <c r="C62" s="81">
+      <c r="C62" s="45">
         <v>158848</v>
       </c>
-      <c r="D62" s="81">
+      <c r="D62" s="45">
         <v>169310</v>
       </c>
-      <c r="E62" s="81">
+      <c r="E62" s="45">
         <v>779</v>
       </c>
-      <c r="F62" s="81">
+      <c r="F62" s="45">
         <v>1827</v>
       </c>
-      <c r="G62" s="81">
+      <c r="G62" s="45">
         <v>3506</v>
       </c>
-      <c r="H62" s="82">
+      <c r="H62" s="46">
         <v>0.5</v>
       </c>
-      <c r="I62" s="82">
+      <c r="I62" s="46">
         <v>1.2</v>
       </c>
-      <c r="J62" s="83">
+      <c r="J62" s="47">
         <v>2.1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="80" t="s">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="B63" s="81">
+      <c r="B63" s="45">
         <v>215050</v>
       </c>
-      <c r="C63" s="81">
+      <c r="C63" s="45">
         <v>226619</v>
       </c>
-      <c r="D63" s="81">
+      <c r="D63" s="45">
         <v>239783</v>
       </c>
-      <c r="E63" s="81">
+      <c r="E63" s="45">
         <v>-102</v>
       </c>
-      <c r="F63" s="81">
+      <c r="F63" s="45">
         <v>562</v>
       </c>
-      <c r="G63" s="81">
+      <c r="G63" s="45">
         <v>1099</v>
       </c>
-      <c r="H63" s="82">
+      <c r="H63" s="46">
         <v>0</v>
       </c>
-      <c r="I63" s="82">
+      <c r="I63" s="46">
         <v>0.2</v>
       </c>
-      <c r="J63" s="83">
+      <c r="J63" s="47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="80" t="s">
+    <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="B64" s="81">
+      <c r="B64" s="45">
         <v>491358</v>
       </c>
-      <c r="C64" s="81">
+      <c r="C64" s="45">
         <v>524815</v>
       </c>
-      <c r="D64" s="81">
+      <c r="D64" s="45">
         <v>565831</v>
       </c>
-      <c r="E64" s="81">
+      <c r="E64" s="45">
         <v>-1584</v>
       </c>
-      <c r="F64" s="81">
+      <c r="F64" s="45">
         <v>2389</v>
       </c>
-      <c r="G64" s="81">
+      <c r="G64" s="45">
         <v>2681</v>
       </c>
-      <c r="H64" s="82">
+      <c r="H64" s="46">
         <v>-0.3</v>
       </c>
-      <c r="I64" s="82">
+      <c r="I64" s="46">
         <v>0.5</v>
       </c>
-      <c r="J64" s="83">
+      <c r="J64" s="47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="84" t="s">
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-    </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="85"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="87"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="48"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="50"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A65:J65"/>
@@ -17695,4 +17700,640 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE98CB0A-4C30-4ED1-8E07-832CD3752256}">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB535E0-DFD1-44E2-80E7-F11BBC69421F}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.94140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>225859</v>
+      </c>
+      <c r="C2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>55591</v>
+      </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>355333</v>
+      </c>
+      <c r="C4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>130201</v>
+      </c>
+      <c r="C5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>3052871</v>
+      </c>
+      <c r="C6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>378489</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>277874</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>74348</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>142626</v>
+      </c>
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>1056014</v>
+      </c>
+      <c r="C11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>602535</v>
+      </c>
+      <c r="C12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>95369</v>
+      </c>
+      <c r="C13">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>78707</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>877010</v>
+      </c>
+      <c r="C15">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>371183</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>191038</v>
+      </c>
+      <c r="C17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>170243</v>
+      </c>
+      <c r="C18">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>211073</v>
+      </c>
+      <c r="C19">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>261479</v>
+      </c>
+      <c r="C20">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>65545</v>
+      </c>
+      <c r="C21">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>417976</v>
+      </c>
+      <c r="C22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>577754</v>
+      </c>
+      <c r="C23">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>531835</v>
+      </c>
+      <c r="C24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>374682</v>
+      </c>
+      <c r="C25">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>116252</v>
+      </c>
+      <c r="C26">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>322972</v>
+      </c>
+      <c r="C27">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>51390</v>
+      </c>
+      <c r="C28">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29">
+        <v>124690</v>
+      </c>
+      <c r="C29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30">
+        <v>173518</v>
+      </c>
+      <c r="C30">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>85075</v>
+      </c>
+      <c r="C31">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32">
+        <v>629996</v>
+      </c>
+      <c r="C32">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33">
+        <v>102370</v>
+      </c>
+      <c r="C33">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34">
+        <v>1679944</v>
+      </c>
+      <c r="C34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>572469</v>
+      </c>
+      <c r="C35">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>56968</v>
+      </c>
+      <c r="C36">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37">
+        <v>685299</v>
+      </c>
+      <c r="C37">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38">
+        <v>205854</v>
+      </c>
+      <c r="C38">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>244544</v>
+      </c>
+      <c r="C39">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>794604</v>
+      </c>
+      <c r="C40">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>61612</v>
+      </c>
+      <c r="C41">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>239176</v>
+      </c>
+      <c r="C42">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>52632</v>
+      </c>
+      <c r="C43">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>369733</v>
+      </c>
+      <c r="C44">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>1842447</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>181214</v>
+      </c>
+      <c r="C46">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>33670</v>
+      </c>
+      <c r="C47">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>540716</v>
+      </c>
+      <c r="C48">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49">
+        <v>577581</v>
+      </c>
+      <c r="C49">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50">
+        <v>78766</v>
+      </c>
+      <c r="C50">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51">
+        <v>340853</v>
+      </c>
+      <c r="C51">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52">
+        <v>39613</v>
+      </c>
+      <c r="C52">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C52">
+    <sortCondition ref="A2:A52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/qgdpstate1119.xlsx
+++ b/qgdpstate1119.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox_new\Dropbox\Elaine cloud\AAA KSU Grad\6773 PDA\Project\PSEO\GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB6124-512E-4F59-A926-F32BD1DF141B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66166E-FE88-4478-A967-6901D353696A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="9" r:id="rId1"/>
@@ -552,9 +552,6 @@
     <t>Revised GDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Start with GDP by Country, state and region. We don’t need quarter by quarter figures, only one measure to compare the GDP state by state. </t>
-  </si>
-  <si>
     <t>We will choose the GDP dollar at 4th quarter of 2018 from Table3, and the 2018 GDP growth column from Table1</t>
   </si>
   <si>
@@ -567,13 +564,16 @@
     <t>gdp_dollars</t>
   </si>
   <si>
-    <t>Deleted total US row and Region subtotals</t>
-  </si>
-  <si>
     <t>state_name</t>
   </si>
   <si>
-    <t>Sorted rows by state_name</t>
+    <t xml:space="preserve">Table3 contains GDP by Country, Regions and State, and by Quarter for 2018 and 2019. We don’t need quarter by quarter figures, only one measure to compare the GDP state by state. </t>
+  </si>
+  <si>
+    <t>Delete total US row and Region subtotals</t>
+  </si>
+  <si>
+    <t>Sort rows by state_name</t>
   </si>
 </sst>
 </file>
@@ -1061,6 +1061,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1164,7 +1165,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5076,57 +5076,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56">
+      <c r="A2" s="55"/>
+      <c r="B2" s="57">
         <v>2018</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="60">
+      <c r="B3" s="58"/>
+      <c r="C3" s="61">
         <v>2018</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="65">
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="66">
         <v>2019</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="64" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="24" t="s">
         <v>20</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="H4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
@@ -6888,17 +6888,17 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6951,87 +6951,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="59" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="3" t="s">
         <v>94</v>
       </c>
@@ -9527,21 +9527,21 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9592,92 +9592,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="59" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="59" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -11812,19 +11812,19 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12117,87 +12117,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="63" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="66">
         <v>2018</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="58">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="59">
         <v>2019</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="65">
+      <c r="G4" s="55"/>
+      <c r="H4" s="66">
         <v>2018</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="58">
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="59">
         <v>2019</v>
       </c>
-      <c r="M4" s="59"/>
+      <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -14754,38 +14754,38 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
     </row>
     <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B72" s="33"/>
@@ -15602,58 +15602,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="79"/>
-      <c r="B2" s="82" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="82" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="87" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="81"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="36">
         <v>2016</v>
       </c>
@@ -17603,18 +17603,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="76" t="s">
+      <c r="A65" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="48"/>
@@ -17706,30 +17706,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE98CB0A-4C30-4ED1-8E07-832CD3752256}">
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
@@ -17746,7 +17746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB535E0-DFD1-44E2-80E7-F11BBC69421F}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -17758,14 +17758,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="89" t="s">
+      <c r="A1" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="B1" s="52" t="s">
         <v>169</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">

--- a/qgdpstate1119.xlsx
+++ b/qgdpstate1119.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox_new\Dropbox\Elaine cloud\AAA KSU Grad\6773 PDA\Project\PSEO\GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66166E-FE88-4478-A967-6901D353696A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C476DBA-AEE2-46DF-A5EC-5DEF7FFAD5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="9" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="226">
   <si>
     <t/>
   </si>
@@ -574,6 +574,162 @@
   </si>
   <si>
     <t>Sort rows by state_name</t>
+  </si>
+  <si>
+    <t>state_abbr</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
@@ -922,7 +1078,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1165,6 +1321,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17706,7 +17863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE98CB0A-4C30-4ED1-8E07-832CD3752256}">
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:R9"/>
     </sheetView>
   </sheetViews>
@@ -17744,593 +17901,750 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB535E0-DFD1-44E2-80E7-F11BBC69421F}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.94140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.94140625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="52" t="s">
         <v>170</v>
       </c>
       <c r="B1" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="52" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2">
         <v>225859</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3">
         <v>55591</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4">
         <v>355333</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5">
         <v>130201</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6">
         <v>3052871</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>69</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7">
         <v>378489</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8">
         <v>277874</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9">
         <v>74348</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10">
         <v>142626</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11">
         <v>1056014</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12">
         <v>602535</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13">
         <v>95369</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14">
         <v>78707</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15">
         <v>877010</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16">
         <v>371183</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17">
         <v>191038</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>80</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18">
         <v>170243</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19">
         <v>211073</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20">
         <v>261479</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21">
         <v>65545</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22">
         <v>417976</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23">
         <v>577754</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24">
         <v>531835</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25">
         <v>374682</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2.6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>63</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26">
         <v>116252</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27">
         <v>322972</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28">
         <v>51390</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2.6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29">
         <v>124690</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>88</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30">
         <v>173518</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31">
         <v>85075</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>77</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32">
         <v>629996</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>84</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33">
         <v>102370</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>78</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34">
         <v>1679944</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>64</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35">
         <v>572469</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>2.4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36">
         <v>56968</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>3.6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37">
         <v>685299</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38">
         <v>205854</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>2.6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>75</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39">
         <v>244544</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>3.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40">
         <v>794604</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>2.6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41">
         <v>61612</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42">
         <v>239176</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>2.6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43">
         <v>52632</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1.9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44">
         <v>369733</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>3.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>86</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45">
         <v>1842447</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>71</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46">
         <v>181214</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>3.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>34</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47">
         <v>33670</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48">
         <v>540716</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>2.6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>89</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49">
         <v>577581</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>5.8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>66</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50">
         <v>78766</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>36</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51">
         <v>340853</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>2.4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52">
         <v>39613</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C52">
+  <sortState ref="A2:D52">
     <sortCondition ref="A2:A52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
